--- a/metadata/RMNCAH/RMNCAH_DASHBOARD_V1_DHIS2.33/reference.xlsx
+++ b/metadata/RMNCAH/RMNCAH_DASHBOARD_V1_DHIS2.33/reference.xlsx
@@ -425,13 +425,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="49.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -463,7 +463,7 @@
         <v>Version</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>V1.0</v>
+        <v>1.1.0</v>
       </c>
     </row>
     <row r="5">
@@ -471,23 +471,31 @@
         <v>DHIS2 version</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>DHIS2.33</v>
+        <v>2.33.9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>Created</v>
+        <v>DHIS2 build</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>2020-04-30T13:59</v>
+        <v>58094d2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>Identifier</v>
+        <v>Last updated</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>RMNCAH_DASHBOARD_V1.0_DHIS2.33_2020-04-30T13:59</v>
+        <v>20210625T065237</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="str">
+        <v>Name</v>
+      </c>
+      <c r="B8" s="4" t="str">
+        <v>RMNCAH_DASHBOARD_V1.1.0_2.33.9-en</v>
       </c>
     </row>
   </sheetData>
@@ -501,7 +509,7 @@
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="81.7109375" customWidth="1"/>
+    <col min="1" max="1" width="106.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
@@ -523,44 +531,44 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v xml:space="preserve">RMNCAH - Antenatal care interventions - yearly </v>
+        <v>RMNCAH - FP clients accepting contraceptives for first time - quarterly</v>
       </c>
       <c r="B2" s="4" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2019-04-30</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>s1HTt1RsC7N</v>
+        <v>a74ivhos1HV</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>RMNCAH - Child mortality by cause 0-4 years - quarterly</v>
+        <v>RMNCAH - Delivery and newborn care interventions by year</v>
       </c>
       <c r="B3" s="5" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2019-04-30</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>pgB0KOsHovg</v>
+        <v>aLMrowvb44Q</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>RMNCAH - Child mortality by cause 5-9 years - quarterly</v>
+        <v>RMNCAH - FP method for post-partum patients at discharge after facility delivery - by orgunit 12-monthly</v>
       </c>
       <c r="B4" s="4" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>2019-04-30</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>RJCFvxlOA7t</v>
+        <v>gC7bvSoYIWz</v>
       </c>
     </row>
     <row r="5">
@@ -571,7 +579,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>2019-04-30</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D5" s="5" t="str">
         <v>gJeV6BtrYoj</v>
@@ -579,153 +587,153 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>RMNCAH - Delivery and newborn care interventions - quarterly</v>
+        <v>RMNCAH - Number of stillbirths by type and year</v>
       </c>
       <c r="B6" s="4" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>2019-04-30</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>QDsX9SohaCB</v>
+        <v>m9IFzMHmRF9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>RMNCAH - Delivery and newborn care interventions by year</v>
+        <v>RMNCAH - Diarrhea treatment for children 0-9 by type, quarterly</v>
       </c>
       <c r="B7" s="5" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>2019-04-30</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>aLMrowvb44Q</v>
+        <v>O2EwlCUHQ25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>RMNCAH - Diarrhea treatment with ORS - monthly</v>
+        <v>RMNCAH - Child mortality by cause 0-4 years - this year</v>
       </c>
       <c r="B8" s="4" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>2019-04-30</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>O2EwlCUHQ25</v>
+        <v>pgB0KOsHovg</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>RMNCAH - First antenatal care during first trimester by age and over time</v>
+        <v>RMNCAH - Pneumonia treatment in children 0-9, by quarter and org unit</v>
       </c>
       <c r="B9" s="5" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>2019-04-30</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>YeAJFrQQU4W</v>
+        <v>pXbMZzknPFp</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>RMNCAH - FP clients accepting contraceptives for first time - quarterly</v>
+        <v>RMNCAH - Newborn mortality by cause</v>
       </c>
       <c r="B10" s="4" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>2019-04-30</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>a74ivhos1HV</v>
+        <v>py5vOPaNck9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>RMNCAH - FP clients accepting contraceptives for first time by age and sex</v>
+        <v>RMNCAH - Delivery and newborn care interventions - quarterly</v>
       </c>
       <c r="B11" s="5" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>2019-05-10</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>u2K7F4cqtdf</v>
+        <v>QDsX9SohaCB</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>RMNCAH - FP method at discharge after facility delivery - by orgunit 12-monthly</v>
+        <v>RMNCAH - Child mortality by cause 5-9 years - this year</v>
       </c>
       <c r="B12" s="4" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>2019-04-30</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>gC7bvSoYIWz</v>
+        <v>RJCFvxlOA7t</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>RMNCAH - Newborn mortality by cause</v>
+        <v xml:space="preserve">RMNCAH - Antenatal care interventions - yearly </v>
       </c>
       <c r="B13" s="5" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>2019-06-25</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D13" s="5" t="str">
-        <v>py5vOPaNck9</v>
+        <v>s1HTt1RsC7N</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>RMNCAH - Pneumonia by treatment type in children 0-4 years</v>
+        <v>RMNCAH - FP clients accepting contraceptives for first time by age and sex</v>
       </c>
       <c r="B14" s="4" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>2019-04-30</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>pXbMZzknPFp</v>
+        <v>u2K7F4cqtdf</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>RMNCAH - Still births</v>
+        <v>RMNCAH - First antenatal care during first trimester by age and over time</v>
       </c>
       <c r="B15" s="5" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>2019-05-09</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D15" s="5" t="str">
-        <v>m9IFzMHmRF9</v>
+        <v>YeAJFrQQU4W</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>RMNCAH- Children with pneumonia by treatment type</v>
+        <v>RMNCAH - Children diagnosed with pneumonia by age and org unit, last 12 months</v>
       </c>
       <c r="B16" s="4" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>2019-04-30</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D16" s="4" t="str">
         <v>zcQnSrwconF</v>
@@ -742,7 +750,7 @@
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="54.7109375" customWidth="1"/>
+    <col min="1" max="1" width="58.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
@@ -764,13 +772,13 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>RMNCAH - Maternal deaths and deaths audited - yearly</v>
+        <v>RMNCAH - Maternal and Perinatal deaths reviewed - yearly</v>
       </c>
       <c r="B2" s="4" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2019-04-30</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D2" s="4" t="str">
         <v>SXjpUVdtS8c</v>
@@ -808,7 +816,7 @@
         <v>RMNCAH access</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2020-03-23</v>
+        <v>2021-05-20</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>DKERleFxdOs</v>
@@ -819,7 +827,7 @@
         <v>RMNCAH admin</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>2020-03-23</v>
+        <v>2021-05-20</v>
       </c>
       <c r="C3" s="5" t="str">
         <v>Kqg4vo1AOKb</v>
@@ -892,13 +900,13 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>Age in years  (0-4, 5-9, unknown)</v>
+        <v>Sex (Male/Female)</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2019-04-24</v>
+        <v>2021-02-08</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>tuz13lFHjuM</v>
+        <v>CMrvZp5rmoC</v>
       </c>
     </row>
     <row r="3">
@@ -906,7 +914,7 @@
         <v>Age in years  (10-14, 15-19, 20+, unknown)</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>2019-04-24</v>
+        <v>2021-02-08</v>
       </c>
       <c r="C3" s="5" t="str">
         <v>EQAlIqdqcI1</v>
@@ -914,13 +922,13 @@
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>Sex (Male/Female)</v>
+        <v>Age in years  (0-4, 5-9, unknown)</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>2020-03-18</v>
+        <v>2021-02-08</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>CMrvZp5rmoC</v>
+        <v>tuz13lFHjuM</v>
       </c>
     </row>
   </sheetData>
@@ -934,8 +942,8 @@
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="28.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
@@ -956,111 +964,111 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>[CONFIG] 0-4 years</v>
+        <v>[CONFIG] Female</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>0-4 years</v>
+        <v>Female</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2019-06-29</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>yuathFHLjNe</v>
+        <v>bqoVhX2RfG4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>[CONFIG] 10-14 years</v>
+        <v>[CONFIG] Male</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>10-14 y</v>
+        <v>Male</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2019-04-24</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>RoYZKp6iDnH</v>
+        <v>EVYKU2fIc6G</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>[CONFIG] 15-19 years</v>
+        <v>[CONFIG] 5-9 years</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>15-19 y</v>
+        <v>5-9 y</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>2019-04-24</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>qiaJA9sMzj2</v>
+        <v>Mcv3dvoK2iM</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>[CONFIG] 20+ years</v>
+        <v>[CONFIG] 15-19 years</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>20+ y</v>
+        <v>15-19 y</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>2019-04-24</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>TYpLRwKGE2K</v>
+        <v>qiaJA9sMzj2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>[CONFIG] 5-9 years</v>
+        <v>[CONFIG] 10-14 years</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>5-9 y</v>
+        <v>10-14 y</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v>2019-04-24</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>Mcv3dvoK2iM</v>
+        <v>RoYZKp6iDnH</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>[CONFIG] Female</v>
+        <v>[CONFIG] 20+ years</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>Female</v>
+        <v>20+ y</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>2020-03-18</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>bqoVhX2RfG4</v>
+        <v>TYpLRwKGE2K</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>[CONFIG] Male</v>
+        <v>[CONFIG] 0-4 years</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>Male</v>
+        <v>0-4 y</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v>2020-03-18</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v>EVYKU2fIc6G</v>
+        <v>yuathFHLjNe</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>[CONFIG] Other/unknown age</v>
+        <v>[CONFIG] Unknown age</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>Other/unknown age</v>
+        <v>Unknown age</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>2019-06-29</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D9" s="5" t="str">
         <v>YXE2HxNf3YB</v>
@@ -1078,7 +1086,7 @@
   </sheetViews>
   <cols>
     <col min="1" max="1" width="44.7109375" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1091,26 +1099,26 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>Age in years  (0-4, 5-9, unknown)</v>
+        <v>Sex (Male/Female)</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>[CONFIG] 0-4 years</v>
+        <v>[CONFIG] Female</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>Age in years  (0-4, 5-9, unknown)</v>
+        <v>Sex (Male/Female)</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v>[CONFIG] 5-9 years</v>
+        <v>[CONFIG] Male</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>Age in years  (0-4, 5-9, unknown)</v>
+        <v>Age in years  (10-14, 15-19, 20+, unknown)</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>[CONFIG] Other/unknown age</v>
+        <v>[CONFIG] 10-14 years</v>
       </c>
     </row>
     <row r="5">
@@ -1118,7 +1126,7 @@
         <v>Age in years  (10-14, 15-19, 20+, unknown)</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>[CONFIG] 10-14 years</v>
+        <v>[CONFIG] 15-19 years</v>
       </c>
     </row>
     <row r="6">
@@ -1126,7 +1134,7 @@
         <v>Age in years  (10-14, 15-19, 20+, unknown)</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v>[CONFIG] 15-19 years</v>
+        <v>[CONFIG] 20+ years</v>
       </c>
     </row>
     <row r="7">
@@ -1134,31 +1142,31 @@
         <v>Age in years  (10-14, 15-19, 20+, unknown)</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>[CONFIG] 20+ years</v>
+        <v>[CONFIG] Unknown age</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>Age in years  (10-14, 15-19, 20+, unknown)</v>
+        <v>Age in years  (0-4, 5-9, unknown)</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v>[CONFIG] Other/unknown age</v>
+        <v>[CONFIG] 0-4 years</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>Sex (Male/Female)</v>
+        <v>Age in years  (0-4, 5-9, unknown)</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>[CONFIG] Female</v>
+        <v>[CONFIG] 5-9 years</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>Sex (Male/Female)</v>
+        <v>Age in years  (0-4, 5-9, unknown)</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>[CONFIG] Male</v>
+        <v>[CONFIG] Unknown age</v>
       </c>
     </row>
   </sheetData>
@@ -1194,86 +1202,86 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>RMNCAH</v>
+        <v>RMNCAH - Mortality</v>
       </c>
       <c r="B2" s="4" t="str">
         <v/>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2019-06-25</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>uDy8xg2ofrw</v>
+        <v>lO4bfTs7T8G</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>RMNCAH - Childhood and Young Adolescence</v>
+        <v>RMNCAH - Postnatal</v>
       </c>
       <c r="B3" s="5" t="str">
         <v/>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>Qc4lDXPFGh7</v>
+        <v>NBoBsBLsTOW</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>RMNCAH - Maternal and Newborn Health</v>
+        <v>RMNCAH - Childhood and Young Adolescence</v>
       </c>
       <c r="B4" s="4" t="str">
         <v/>
       </c>
       <c r="C4" s="4" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>VQy2Db1ToNM</v>
+        <v>Qc4lDXPFGh7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>RMNCAH - Mortality</v>
+        <v>RMNCAH - Sexual and reproductive health</v>
       </c>
       <c r="B5" s="5" t="str">
         <v/>
       </c>
       <c r="C5" s="5" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>lO4bfTs7T8G</v>
+        <v>RRcDhY8kEtf</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>RMNCAH - Postnatal</v>
+        <v>RMNCAH</v>
       </c>
       <c r="B6" s="4" t="str">
         <v/>
       </c>
       <c r="C6" s="4" t="str">
-        <v>2019-04-28</v>
+        <v>2021-06-23</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v>NBoBsBLsTOW</v>
+        <v>uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>RMNCAH - Sexual and reproductive health</v>
+        <v>RMNCAH - Maternal and Newborn Health</v>
       </c>
       <c r="B7" s="5" t="str">
         <v/>
       </c>
       <c r="C7" s="5" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>RRcDhY8kEtf</v>
+        <v>VQy2Db1ToNM</v>
       </c>
     </row>
   </sheetData>
@@ -1282,21 +1290,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J80"/>
+  <dimension ref="A1:J116"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="94.7109375" customWidth="1"/>
-    <col min="3" max="3" width="50.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="102.7109375" customWidth="1"/>
+    <col min="3" max="3" width="51.7109375" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" customWidth="1"/>
     <col min="5" max="5" width="577.7109375" customWidth="1"/>
     <col min="6" max="6" width="96.7109375" customWidth="1"/>
-    <col min="7" max="7" width="63.7109375" customWidth="1"/>
+    <col min="7" max="7" width="69.7109375" customWidth="1"/>
     <col min="8" max="8" width="25.7109375" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="26.7109375" customWidth="1"/>
+    <col min="10" max="10" width="39.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1333,22 +1341,22 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>Ec4z30wDGVH</v>
+        <v>aCJadIVZ815</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v xml:space="preserve">[CONFIG] RMNCAH - ANC 1st visit </v>
+        <v>[CONFIG] RMNCAH - Death neonatal pre-term birth complications</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v xml:space="preserve">ANC 1st visit </v>
+        <v>Death neonatal pre-term birth</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>RMNCAH_ANC1</v>
+        <v>RMNCAH_NDLBWPR</v>
       </c>
       <c r="E2" s="4" t="str">
-        <v>First visit by a pregnant woman to a health facility to primarily receive antenatal care. The first antenatal visit may be referred to as a ‘booking or scheduled visit’ when various processes are done as per the national policy.</v>
+        <v>Number of Neonatal deaths due to pre-term birth complications</v>
       </c>
       <c r="F2" s="4" t="str">
-        <v>ANC 1st visit</v>
+        <v>Death neonatal pre-term birth complications</v>
       </c>
       <c r="G2" s="4" t="str">
         <v>1</v>
@@ -1357,30 +1365,30 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I2" s="4" t="str">
-        <v>2019-05-24</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J2" s="4" t="str">
-        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>Vgr5AiRKANz</v>
+        <v>Aii5EOk1xEW</v>
       </c>
       <c r="B3" s="5" t="str">
-        <v xml:space="preserve">[CONFIG] RMNCAH - ANC 4th visit </v>
+        <v>[CONFIG] RMNCAH - Birth still macerated</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v xml:space="preserve">ANC 4th visit </v>
+        <v>Stillbirth macerated</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>RMNCAH_ANC_4TH</v>
+        <v>RMNCAH_SBM</v>
       </c>
       <c r="E3" s="5" t="str">
-        <v/>
+        <v>Number of facility births where the infant was Stillbirth-Macerated: Still birth is defined as infant born with no signs of life, weighting more than 1,000 g and older than 28 weeks gestation. An antepartum foetal death (stillbirth – macerated) refers to a foetus that has suffered an intrauterine death after the 28th week of gestation and before labour. Maceration describes the degenerative changes that occur in stillbirths retained in the utero after death, and the earliest signs are in the form of discolouration and peeling of the skin, leaving regions of raw tissue.</v>
       </c>
       <c r="F3" s="5" t="str">
-        <v>ANC 4th visit</v>
+        <v>Stillbirths - macerated</v>
       </c>
       <c r="G3" s="5" t="str">
         <v>1</v>
@@ -1389,94 +1397,94 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I3" s="5" t="str">
-        <v>2019-05-24</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J3" s="5" t="str">
-        <v>uDy8xg2ofrw</v>
+        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="str">
-        <v>FgNnsRgCs8r</v>
+        <v>alJibw2mTO6</v>
       </c>
       <c r="B4" s="4" t="str">
-        <v>[CONFIG] RMNCAH - ANC 4th visit coverage (%)</v>
+        <v>[CONFIG] RMNCAH - Death child 0-4y birth trauma/asphyxia</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>ANC 4th visit coverage (%)</v>
+        <v>Death child 0-4y birth trauma/asphyxia</v>
       </c>
       <c r="D4" s="4" t="str">
-        <v>RMNCAH_ANC4_COV</v>
+        <v>RMNCAH_DEATH_CHILD_0-4y_BRTH_TRAUMA_ASPH</v>
       </c>
       <c r="E4" s="4" t="str">
-        <v>Percentage of expected pregnant women who had 4 ANC visits.</v>
+        <v>Number of child deaths 0-4years due to birth trauma/asphyxia</v>
       </c>
       <c r="F4" s="4" t="str">
-        <v xml:space="preserve">ANC 4th visit </v>
+        <v>Death child 0-4y birth trauma/asphyxia</v>
       </c>
       <c r="G4" s="4" t="str">
-        <v>Expected pregnancies (pop data)</v>
+        <v>1</v>
       </c>
       <c r="H4" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I4" s="4" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J4" s="4" t="str">
-        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="str">
-        <v>u4MVw6vtaVq</v>
+        <v>ALyeW8OBDrh</v>
       </c>
       <c r="B5" s="5" t="str">
-        <v>[CONFIG] RMNCAH - ANC 8th visit coverage (%)</v>
+        <v>[CONFIG] RMNCAH - Death child 5-9y pertusis</v>
       </c>
       <c r="C5" s="5" t="str">
-        <v>ANC 8th visit coverage (%)</v>
+        <v>Death child 5-9y pertusis</v>
       </c>
       <c r="D5" s="5" t="str">
-        <v>RMNCAH_ANC8_COV</v>
+        <v>RMNCAH_DEATH_CHILD_5-9y_PRTSIS</v>
       </c>
       <c r="E5" s="5" t="str">
-        <v>Percentage of expected pregnant women who had 8 ANC visits.</v>
+        <v>Number of child deaths 5-9 years due to pertusis</v>
       </c>
       <c r="F5" s="5" t="str">
-        <v>ANC 8th visit</v>
+        <v>Death child 5-9y pertusis</v>
       </c>
       <c r="G5" s="5" t="str">
-        <v>Expected pregnancies (pop data)</v>
+        <v>1</v>
       </c>
       <c r="H5" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I5" s="5" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J5" s="5" t="str">
-        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="str">
-        <v>PEXOeNaxOz0</v>
+        <v>aoUZk8o1ula</v>
       </c>
       <c r="B6" s="4" t="str">
-        <v xml:space="preserve">[CONFIG] RMNCAH - ANC client screened for syphilis </v>
+        <v>[CONFIG] RMNCAH - Deaths neonatal</v>
       </c>
       <c r="C6" s="4" t="str">
-        <v xml:space="preserve">ANC client screened for syphilis </v>
+        <v>Deaths neonatal</v>
       </c>
       <c r="D6" s="4" t="str">
-        <v/>
+        <v>RMNCAH_NND</v>
       </c>
       <c r="E6" s="4" t="str">
-        <v>Number of antenatal clients screened for syphilis</v>
+        <v>Number of newborns who die in the health facility in the first 28 days. Note: This includes any neonatal death in a facility that occurred in the first 28 days – pre-discharge after birth or upon re- admission for an illness.</v>
       </c>
       <c r="F6" s="4" t="str">
-        <v>RMNCAH - Antenatal client screened for syphilis</v>
+        <v>Death neonatal</v>
       </c>
       <c r="G6" s="4" t="str">
         <v>1</v>
@@ -1485,39 +1493,39 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I6" s="4" t="str">
-        <v>2019-05-24</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J6" s="4" t="str">
-        <v>uDy8xg2ofrw</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="str">
-        <v>tkL7UlM3HGM</v>
+        <v>b4e4QZfBe5x</v>
       </c>
       <c r="B7" s="5" t="str">
-        <v>[CONFIG] RMNCAH - ANC client syphilis screening (%)</v>
+        <v>[CONFIG] RMNCAH - Uterotonic for prevention of post-partum haemorrhage (%)</v>
       </c>
       <c r="C7" s="5" t="str">
-        <v>ANC syphilis screening (%)</v>
+        <v>Uterotonic for PPH (%)</v>
       </c>
       <c r="D7" s="5" t="str">
-        <v>RMNCAH_ANCSS</v>
+        <v>RMNCAH_UPPH</v>
       </c>
       <c r="E7" s="5" t="str">
-        <v>Percentage of antenatal clients screened for syphilis</v>
+        <v>Percentage of women who gave birth in a facility who received a prophylactic uterotonic immediately after birth for prevention of postpartum hemorrhage. "Immediately" ideally refers to within one minute.</v>
       </c>
       <c r="F7" s="5" t="str">
-        <v>ANC clients screened for syphilis</v>
+        <v>Received a prophylactic uterotonic immediately after birth</v>
       </c>
       <c r="G7" s="5" t="str">
-        <v>ANC 1st visit</v>
+        <v>Delivery in facility</v>
       </c>
       <c r="H7" s="5" t="str">
         <v>Percentage</v>
       </c>
       <c r="I7" s="5" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J7" s="5" t="str">
         <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
@@ -1525,22 +1533,22 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="str">
-        <v>JWVdWMhNGSI</v>
+        <v>b9f35x2djwF</v>
       </c>
       <c r="B8" s="4" t="str">
-        <v xml:space="preserve">[CONFIG] RMNCAH - ANC clients 1st visit before 12 weeks </v>
+        <v>[CONFIG] RMNCAH - Death child 0-4y meningitis</v>
       </c>
       <c r="C8" s="4" t="str">
-        <v xml:space="preserve">ANC 1st visit 0-11wks </v>
+        <v>Death child 0-4y meningitis</v>
       </c>
       <c r="D8" s="4" t="str">
-        <v/>
+        <v>RMNCAH_DEATH_CHILD_0-4y_MENG</v>
       </c>
       <c r="E8" s="4" t="str">
-        <v/>
+        <v>Number of child deaths 0-4 years due to meningitis</v>
       </c>
       <c r="F8" s="4" t="str">
-        <v>ANC clients 1st visit before 12 weeks (n)</v>
+        <v>Death child 0-4y meningitis</v>
       </c>
       <c r="G8" s="4" t="str">
         <v>1</v>
@@ -1549,103 +1557,103 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I8" s="4" t="str">
-        <v>2019-05-24</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J8" s="4" t="str">
-        <v>uDy8xg2ofrw</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="str">
-        <v>IzgsCWHHGBG</v>
+        <v>bFFptiqjRAk</v>
       </c>
       <c r="B9" s="5" t="str">
-        <v>[CONFIG] RMNCAH - ANC clients 1st visit before 12 weeks (%)</v>
+        <v>[CONFIG] RMNCAH - Postnatal care newborns on time (%)</v>
       </c>
       <c r="C9" s="5" t="str">
-        <v>ANC 1st visit 0-11wks</v>
+        <v>Postnatal care newborns timely (%)</v>
       </c>
       <c r="D9" s="5" t="str">
-        <v>RMNCAH_ANC1_12W</v>
+        <v>RMNCAH_PPNBTV</v>
       </c>
       <c r="E9" s="5" t="str">
-        <v>Percentage of antenatal clients who attended their 1st ANC visit before 12 weeks gestation</v>
+        <v>Percentage of newborns with timely postnatal check according to national guidelines.</v>
       </c>
       <c r="F9" s="5" t="str">
-        <v>ANC 1st visit before 12 weeks</v>
+        <v>Postpartum neonate timely 1st PNC visit</v>
       </c>
       <c r="G9" s="5" t="str">
-        <v>ANC 1st visit</v>
+        <v>Live births in facility</v>
       </c>
       <c r="H9" s="5" t="str">
         <v>Percentage</v>
       </c>
       <c r="I9" s="5" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J9" s="5" t="str">
-        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
+        <v>NBoBsBLsTOW, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="str">
-        <v>kZ3uuGsjfBH</v>
+        <v>bVi8tilV7uO</v>
       </c>
       <c r="B10" s="4" t="str">
-        <v>[CONFIG] RMNCAH - ANC clients with haemoglobin measured (%)</v>
+        <v>[CONFIG] RMNCAH - Death child 0-4y malaria</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>ANC HB measured (%)</v>
+        <v>Death child 0-4y malaria</v>
       </c>
       <c r="D10" s="4" t="str">
-        <v>RMNCAH_ANCHB</v>
+        <v>RMNCAH_DEATH_CHILD_0-4y_MAL</v>
       </c>
       <c r="E10" s="4" t="str">
-        <v>Percentage of antenatal clients with haemoglobin level measured.</v>
+        <v>Number of child deaths 0-4 years due to malaria</v>
       </c>
       <c r="F10" s="4" t="str">
-        <v>ANC clients with haemoglobin level measured</v>
+        <v>Death child 0-4y malaria</v>
       </c>
       <c r="G10" s="4" t="str">
-        <v>ANC 1st visit</v>
+        <v>1</v>
       </c>
       <c r="H10" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I10" s="4" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J10" s="4" t="str">
-        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="str">
-        <v>XXDXVGzvSx1</v>
+        <v>BvmZb48wAcM</v>
       </c>
       <c r="B11" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Assisted delivery rate in institutional deliveries (%)</v>
+        <v>[CONFIG] RMNCAH - Birth Pre-term(%)</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>Assisted institutional delivery rate (%)</v>
+        <v>Birth Pre-term (%)</v>
       </c>
       <c r="D11" s="5" t="str">
-        <v>RMNCAH_AD</v>
+        <v>RMNCAH_BIRTH_PreTERM</v>
       </c>
       <c r="E11" s="5" t="str">
-        <v>Percentage of deliveries in health facilities that are assisted (forceps or vacuum)</v>
+        <v>Percentage of births in health facility that are pre-term (less than 37 weeks gestation)</v>
       </c>
       <c r="F11" s="5" t="str">
-        <v>Delivery in facility - Assisted (Vacuum or forceps)</v>
+        <v>Number of pre-term births - under 37weeks gestation</v>
       </c>
       <c r="G11" s="5" t="str">
-        <v>Delivery in facility</v>
+        <v>Number of live births in facility</v>
       </c>
       <c r="H11" s="5" t="str">
         <v>Percentage</v>
       </c>
       <c r="I11" s="5" t="str">
-        <v>2019-04-28</v>
+        <v>2020-04-08</v>
       </c>
       <c r="J11" s="5" t="str">
         <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
@@ -1653,95 +1661,95 @@
     </row>
     <row r="12">
       <c r="A12" s="4" t="str">
-        <v>PH78zjodtpG</v>
+        <v>ccsNVDSzNfX</v>
       </c>
       <c r="B12" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Babies with documented birthweight (%)</v>
+        <v>[CONFIG] RMNCAH - Deaths maternal reviewed (%)</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>Newborn documented birth-weight (%)</v>
+        <v>Deaths maternal reviewed (%)</v>
       </c>
       <c r="D12" s="4" t="str">
-        <v>RMNCAH_NBDBW</v>
+        <v>RMNCAH_MDRV</v>
       </c>
       <c r="E12" s="4" t="str">
-        <v>Percentage of babies born in a facility with documented birthweight before discharge</v>
+        <v>Percentage of maternal deaths reviewed.</v>
       </c>
       <c r="F12" s="4" t="str">
-        <v>Live births with documented birth weight</v>
+        <v>Death maternal audited</v>
       </c>
       <c r="G12" s="4" t="str">
-        <v>Live births in facility</v>
+        <v>Death maternal</v>
       </c>
       <c r="H12" s="4" t="str">
         <v>Percentage</v>
       </c>
       <c r="I12" s="4" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J12" s="4" t="str">
-        <v>uDy8xg2ofrw, NBoBsBLsTOW</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="str">
-        <v>hjoN5yNAHoP</v>
+        <v>cDVlZtmYpBQ</v>
       </c>
       <c r="B13" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Birth still fresh</v>
+        <v>[CONFIG] RMNCAH - Couple year protection rate (CYPR) (%)</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>Stillbirth fresh</v>
+        <v>CYP rate (%)</v>
       </c>
       <c r="D13" s="5" t="str">
-        <v>RMNCAH_SBF</v>
+        <v>RMNCAH_CYPR</v>
       </c>
       <c r="E13" s="5" t="str">
-        <v xml:space="preserve">Number of facility births where the infant was Stillbirth-fresh: Still birth is defined as infant born with no signs of life, weighting more than 1,000 g and older than 28 weeks gestation. An intrapartum foetal death (stillbirth - fresh), refers to a baby that has died after the onset of labour and before birth. </v>
+        <v>Couple year protection rate, calculated using units of contraceptives distributed with factors, female population. See guidance for formula</v>
       </c>
       <c r="F13" s="5" t="str">
-        <v>Stillbirths - fresh</v>
+        <v>Sum of units of contraceptives distributed divided by factor</v>
       </c>
       <c r="G13" s="5" t="str">
-        <v>1</v>
+        <v>Female population 15-49y /12</v>
       </c>
       <c r="H13" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I13" s="5" t="str">
-        <v>2019-04-28</v>
+        <v>2020-04-11</v>
       </c>
       <c r="J13" s="5" t="str">
-        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
+        <v>RRcDhY8kEtf, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="str">
-        <v>Aii5EOk1xEW</v>
+        <v>ChpaxILo7IO</v>
       </c>
       <c r="B14" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Birth still macerated</v>
+        <v>[CONFIG] RMNCAH - HIV PMTCT testing coverage rate - Tested HIV+ during ANC (%)</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>Stillbirth macerated</v>
+        <v>PMTCT testing coverage - tested HIV+ (%)</v>
       </c>
       <c r="D14" s="4" t="str">
-        <v>RMNCAH_SBM</v>
+        <v>RMNCAH_PMTCT_TEST_COV_HIV+</v>
       </c>
       <c r="E14" s="4" t="str">
-        <v>Number of facility births where the infant was Stillbirth-Macerated: Still birth is defined as infant born with no signs of life, weighting more than 1,000 g and older than 28 weeks gestation. An antepartum foetal death (stillbirth – macerated) refers to a foetus that has suffered an intrauterine death after the 28th week of gestation and before labour. Maceration describes the degenerative changes that occur in stillbirths retained in the utero after death, and the earliest signs are in the form of discolouration and peeling of the skin, leaving regions of raw tissue.</v>
+        <v xml:space="preserve">Percentage of antenatal clients who tested HIV+ during ANC </v>
       </c>
       <c r="F14" s="4" t="str">
-        <v>Stillbirths - macerated</v>
+        <v>ANC clients who tested HIV+ during ANC</v>
       </c>
       <c r="G14" s="4" t="str">
-        <v>1</v>
+        <v>ANC 1st visit</v>
       </c>
       <c r="H14" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I14" s="4" t="str">
-        <v>2019-04-28</v>
+        <v>2020-04-23</v>
       </c>
       <c r="J14" s="4" t="str">
         <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
@@ -1749,63 +1757,63 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="str">
-        <v>PBSxUYML4vn</v>
+        <v>clN7gBXNEPT</v>
       </c>
       <c r="B15" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Caesarean section rate (%)</v>
+        <v>[CONFIG] RMNCAH - Death child 5-9y acute respiratory infection (ARI)</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>C/S delivery rate (%)</v>
+        <v>Death child 5-9y ARI</v>
       </c>
       <c r="D15" s="5" t="str">
-        <v>RMNCAH_CSEB</v>
+        <v>RMNCAH_DEATH_CHILD_5-9y_ARI</v>
       </c>
       <c r="E15" s="5" t="str">
-        <v>Percentage of expected live births that are done by caesarean section</v>
+        <v>Number of child deaths 5-9 years due to acute respiratory infection (ARI)</v>
       </c>
       <c r="F15" s="5" t="str">
-        <v>Delivery by Caesarean Section</v>
+        <v>Death child 5-9y acute respiratory infection (ARI)</v>
       </c>
       <c r="G15" s="5" t="str">
-        <v>Population live births</v>
+        <v>1</v>
       </c>
       <c r="H15" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I15" s="5" t="str">
-        <v>2019-06-12</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J15" s="5" t="str">
-        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="str">
-        <v>mX4OsXFUW5A</v>
+        <v>Dg7dZlcVZGE</v>
       </c>
       <c r="B16" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Caesarean section rate in institutional deliveries (%)</v>
+        <v>[CONFIG] RMNCAH - ANC IPTp3  (%)</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>C/S institutional delivery rate (%)</v>
+        <v>ANC IPTp3 (%)</v>
       </c>
       <c r="D16" s="4" t="str">
-        <v>RMNCAH_CS</v>
+        <v>RMNCAH_ANC_IPTP3</v>
       </c>
       <c r="E16" s="4" t="str">
-        <v>Percentage of deliveries in health facilities that are caesarean sections</v>
+        <v>Percentage of ANC clients who received the third dose of IPTp: Intermittent preventive therapy for malaria during pregnancy</v>
       </c>
       <c r="F16" s="4" t="str">
-        <v>Delivery in facility - Caesarean Section</v>
+        <v>IPTp 3rd dose</v>
       </c>
       <c r="G16" s="4" t="str">
-        <v>Delivery in facility</v>
+        <v>RMNCAH ANC 1st visit</v>
       </c>
       <c r="H16" s="4" t="str">
         <v>Percentage</v>
       </c>
       <c r="I16" s="4" t="str">
-        <v>2019-04-28</v>
+        <v>2020-04-11</v>
       </c>
       <c r="J16" s="4" t="str">
         <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
@@ -1813,22 +1821,22 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="str">
-        <v>GkfXbG5tG1S</v>
+        <v>DVIGOKCmnd8</v>
       </c>
       <c r="B17" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Child received treatment for pneumonia with Amoxicillin</v>
+        <v>[CONFIG] RMNCAH - Deaths perinatal total in HMIS</v>
       </c>
       <c r="C17" s="5" t="str">
-        <v>Child treated for pneumonia Amoxicillin</v>
+        <v>Deaths perinatal HMIS</v>
       </c>
       <c r="D17" s="5" t="str">
-        <v>RMNCAH_CRTPN_AMOX</v>
+        <v>RMNCAH_PD_HMIS</v>
       </c>
       <c r="E17" s="5" t="str">
-        <v>Number of children who received treatment for pneumonia with Amoxicillin</v>
+        <v>Number of perinatal deaths reported in the HMIS</v>
       </c>
       <c r="F17" s="5" t="str">
-        <v>Child received treatment for pneumonia with Amoxicillin</v>
+        <v>Death perinatal in HMIS</v>
       </c>
       <c r="G17" s="5" t="str">
         <v>1</v>
@@ -1837,62 +1845,62 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I17" s="5" t="str">
-        <v>2019-04-28</v>
+        <v>2020-04-23</v>
       </c>
       <c r="J17" s="5" t="str">
-        <v>uDy8xg2ofrw, Qc4lDXPFGh7</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="str">
-        <v>eM7UECzxWnh</v>
+        <v>DWO9EyfG3Fl</v>
       </c>
       <c r="B18" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Child received treatment for pneumonia with other antibiotic</v>
+        <v>[CONFIG] RMNCAH - Pneumonia treatment in children 0-9 years (%)</v>
       </c>
       <c r="C18" s="4" t="str">
-        <v>Child treated for pneumonia other antibiotic</v>
+        <v>Pneumonia treatment 0-9y (%)</v>
       </c>
       <c r="D18" s="4" t="str">
-        <v>RMNCAH_CRTPN_OANTIB</v>
+        <v>RMNCAH_PNT</v>
       </c>
       <c r="E18" s="4" t="str">
-        <v>Number of children who received treatment for pneumonia with other antibiotic (not Amoxicillin)</v>
+        <v>Percentage of children correctly diagnosed with pneumonia who received treatment.</v>
       </c>
       <c r="F18" s="4" t="str">
-        <v>Child received treatment for pneumonia with other antibiotic</v>
+        <v>Children 0-9 years treated for pneumonia</v>
       </c>
       <c r="G18" s="4" t="str">
-        <v>1</v>
+        <v>Children 0-9 years diagnosed with pneumonia</v>
       </c>
       <c r="H18" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I18" s="4" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J18" s="4" t="str">
-        <v>uDy8xg2ofrw, Qc4lDXPFGh7</v>
+        <v>Qc4lDXPFGh7, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="str">
-        <v>e4NlJyExHPj</v>
+        <v>DzpJ77sHAaQ</v>
       </c>
       <c r="B19" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Child received treatment for pneumonia with other medication</v>
+        <v>[CONFIG] RMNCAH - Death child 5-9y injuries</v>
       </c>
       <c r="C19" s="5" t="str">
-        <v>Child treated for pneumonia other medication</v>
+        <v>Child death 5-9y injuries</v>
       </c>
       <c r="D19" s="5" t="str">
-        <v>RMNCAH_CRTPN_OMED</v>
+        <v>RMNCAH_DEATH_CHILD_5-9y_INJ</v>
       </c>
       <c r="E19" s="5" t="str">
-        <v>Number of children who received treatment for pneumonia with other medication (non-antibiotic)</v>
+        <v>Number of child deaths 5-9 years due to injuries</v>
       </c>
       <c r="F19" s="5" t="str">
-        <v>Child received treatment for pneumonia with other medication</v>
+        <v>Death child 5-9y injuries</v>
       </c>
       <c r="G19" s="5" t="str">
         <v>1</v>
@@ -1901,30 +1909,30 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I19" s="5" t="str">
-        <v>2019-04-28</v>
+        <v>2020-04-27</v>
       </c>
       <c r="J19" s="5" t="str">
-        <v>uDy8xg2ofrw, Qc4lDXPFGh7</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="str">
-        <v>g8GiLWe3JzN</v>
+        <v>e4NlJyExHPj</v>
       </c>
       <c r="B20" s="4" t="str">
-        <v xml:space="preserve">[CONFIG] RMNCAH - Contraception first time user </v>
+        <v>[CONFIG] RMNCAH - Child received treatment for pneumonia with other medication</v>
       </c>
       <c r="C20" s="4" t="str">
-        <v xml:space="preserve">Contraception 1st time user </v>
+        <v>Child treated for pneumonia other medication</v>
       </c>
       <c r="D20" s="4" t="str">
-        <v>RMNCAH_FPFT</v>
+        <v>RMNCAH_CRTPN_OMED</v>
       </c>
       <c r="E20" s="4" t="str">
-        <v>Number of clients who accepted a family planning method for the 1st time</v>
+        <v>Number of children who received treatment for pneumonia with other medication (non-antibiotic)</v>
       </c>
       <c r="F20" s="4" t="str">
-        <v>Contraception first time user</v>
+        <v>Child received treatment for pneumonia with other medication</v>
       </c>
       <c r="G20" s="4" t="str">
         <v>1</v>
@@ -1933,30 +1941,30 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I20" s="4" t="str">
-        <v>2019-05-24</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J20" s="4" t="str">
-        <v>uDy8xg2ofrw, RRcDhY8kEtf</v>
+        <v>Qc4lDXPFGh7, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="str">
-        <v>MfHDRuISx5E</v>
+        <v>Ec4z30wDGVH</v>
       </c>
       <c r="B21" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Death child accident</v>
+        <v>[CONFIG] RMNCAH - ANC 1st visit</v>
       </c>
       <c r="C21" s="5" t="str">
-        <v>Child death accident</v>
+        <v>ANC 1st visit</v>
       </c>
       <c r="D21" s="5" t="str">
-        <v>RMNCAH_DCACC</v>
+        <v>RMNCAH_ANC1</v>
       </c>
       <c r="E21" s="5" t="str">
-        <v>Number of child deaths due to accidents like road accidents, drowning, snake bites etc</v>
+        <v>First visit by a pregnant woman to a health facility to primarily receive antenatal care. The first antenatal visit may be referred to as a ‘booking or scheduled visit’ when various processes are done as per the national policy.</v>
       </c>
       <c r="F21" s="5" t="str">
-        <v>Death child accident</v>
+        <v>ANC 1st visit</v>
       </c>
       <c r="G21" s="5" t="str">
         <v>1</v>
@@ -1965,62 +1973,62 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I21" s="5" t="str">
-        <v>2019-04-28</v>
+        <v>2021-06-25</v>
       </c>
       <c r="J21" s="5" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="str">
-        <v>zlR4t4qRTZR</v>
+        <v>EeIEcimWybJ</v>
       </c>
       <c r="B22" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Death child acute respiratory disease</v>
+        <v>[CONFIG] RMNCAH - IPTp3 coverage (%)</v>
       </c>
       <c r="C22" s="4" t="str">
-        <v>Child death acute respiratory disease</v>
+        <v>IPTp3 coverage (%)</v>
       </c>
       <c r="D22" s="4" t="str">
-        <v>RMNCAH_DCPARI</v>
+        <v>RMNCAH_IPTP3_COV</v>
       </c>
       <c r="E22" s="4" t="str">
-        <v>Number of child deaths due to acute respiratory disease</v>
+        <v>Percentage of expected pregnant women who received the third dose of IPTp: Intermittent preventive therapy for malaria during pregnancy</v>
       </c>
       <c r="F22" s="4" t="str">
-        <v>Death child acute respiratory disease</v>
+        <v>IPTp 3rd dose</v>
       </c>
       <c r="G22" s="4" t="str">
-        <v>1</v>
+        <v>Expected pregnancies (pop data) in areas with risk of malaria</v>
       </c>
       <c r="H22" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I22" s="4" t="str">
-        <v>2019-04-28</v>
+        <v>2020-04-08</v>
       </c>
       <c r="J22" s="4" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="str">
-        <v>alJibw2mTO6</v>
+        <v>Ehw00wViRfW</v>
       </c>
       <c r="B23" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Death child assault</v>
+        <v>[CONFIG] RMNCAH TB - Notified TB cases (new and relapse, all forms) aged 0-4</v>
       </c>
       <c r="C23" s="5" t="str">
-        <v>Death child assault</v>
+        <v>TB notification 0-4</v>
       </c>
       <c r="D23" s="5" t="str">
-        <v>RMNCAH_DCASS</v>
+        <v>RMNCAH_TB_C_NEWREL_04</v>
       </c>
       <c r="E23" s="5" t="str">
-        <v>Number of child deaths due to assault</v>
+        <v>Number of TB cases aged 0-4 in given year (new and relapse, all forms)</v>
       </c>
       <c r="F23" s="5" t="str">
-        <v>Death child assault</v>
+        <v>Number of TB cases aged 0-4 (new and relapse only)</v>
       </c>
       <c r="G23" s="5" t="str">
         <v>1</v>
@@ -2029,62 +2037,62 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I23" s="5" t="str">
-        <v>2019-04-28</v>
+        <v>2020-04-23</v>
       </c>
       <c r="J23" s="5" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>Qc4lDXPFGh7, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="str">
-        <v>zXhn9sH8oXD</v>
+        <v>eM54myJGX6k</v>
       </c>
       <c r="B24" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Death child complications of medical and surgical care</v>
+        <v>[CONFIG] RMNCAH - Normal delivery rate (%)</v>
       </c>
       <c r="C24" s="4" t="str">
-        <v>Death child medical, surgical complications</v>
+        <v>Normal delivery rate (%)</v>
       </c>
       <c r="D24" s="4" t="str">
-        <v>RMNCAH_DCCMS</v>
+        <v>RMNCAH_ND</v>
       </c>
       <c r="E24" s="4" t="str">
-        <v>Number of child deaths due to medical, surgical complications</v>
+        <v>Percentage of deliveries in health facilities that are normal (not assisted or by C/S)</v>
       </c>
       <c r="F24" s="4" t="str">
-        <v>Death child complications of medical and surgical care</v>
+        <v>Delivery in facility - Normal</v>
       </c>
       <c r="G24" s="4" t="str">
-        <v>1</v>
+        <v>Delivery in facility</v>
       </c>
       <c r="H24" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I24" s="4" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J24" s="4" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="str">
-        <v>Whob66sPjEE</v>
+        <v>eM7UECzxWnh</v>
       </c>
       <c r="B25" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Death child congenital birth defects</v>
+        <v>[CONFIG] RMNCAH - Child received treatment for pneumonia with other antibiotic</v>
       </c>
       <c r="C25" s="5" t="str">
-        <v>Death child congenital birth defects</v>
+        <v>Child treated for pneumonia other antibiotic</v>
       </c>
       <c r="D25" s="5" t="str">
-        <v>RMNCAH_DCCBD</v>
+        <v>RMNCAH_CRTPN_OANTIB</v>
       </c>
       <c r="E25" s="5" t="str">
-        <v>Number of child deaths due to congenital birth defects</v>
+        <v>Number of children who received treatment for pneumonia with other antibiotic (not Amoxicillin)</v>
       </c>
       <c r="F25" s="5" t="str">
-        <v>Death child congenital birth defects</v>
+        <v>Child received treatment for pneumonia with other antibiotic</v>
       </c>
       <c r="G25" s="5" t="str">
         <v>1</v>
@@ -2093,126 +2101,126 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I25" s="5" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J25" s="5" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>Qc4lDXPFGh7, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="str">
-        <v>IY9YdW4nbhE</v>
+        <v>ePPf0F5klqt</v>
       </c>
       <c r="B26" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Death child diarrhoea</v>
+        <v>[CONFIG] RMNCAH - Postnatal care mother (%)</v>
       </c>
       <c r="C26" s="4" t="str">
-        <v>Death child diarrhoea</v>
+        <v>Postnatal care mother (%)</v>
       </c>
       <c r="D26" s="4" t="str">
-        <v>RMNCAH_DCD</v>
+        <v>RMNCAH_PPMV</v>
       </c>
       <c r="E26" s="4" t="str">
-        <v>Number of child deaths due to diarrhoea, and the dehydration caused by diarrhoea</v>
+        <v>Percentage of women with postnatal check. Note: The numerator includes both women who gave birth in the health facility and those who gave birth outside the health facility.</v>
       </c>
       <c r="F26" s="4" t="str">
-        <v>Death child diarrhoea</v>
+        <v>Postpartum woman with at least 1 PNC visit</v>
       </c>
       <c r="G26" s="4" t="str">
-        <v>1</v>
+        <v>Delivery in facility</v>
       </c>
       <c r="H26" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I26" s="4" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J26" s="4" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>NBoBsBLsTOW, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="str">
-        <v>hFyOhDujxki</v>
+        <v>FgNnsRgCs8r</v>
       </c>
       <c r="B27" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Death child HIV</v>
+        <v>[CONFIG] RMNCAH - ANC 4th visit coverage (%)</v>
       </c>
       <c r="C27" s="5" t="str">
-        <v>Death child HIV</v>
+        <v>ANC 4th visit coverage (%)</v>
       </c>
       <c r="D27" s="5" t="str">
-        <v>RMNCAH_DCHIV</v>
+        <v>RMNCAH_ANC4_COV</v>
       </c>
       <c r="E27" s="5" t="str">
-        <v>Number of child deaths due to opportunistic infections from HIV</v>
+        <v>Percentage of expected pregnant women who had 4 ANC visits.</v>
       </c>
       <c r="F27" s="5" t="str">
-        <v>Death child HIV</v>
+        <v xml:space="preserve">ANC 4th visit </v>
       </c>
       <c r="G27" s="5" t="str">
-        <v>1</v>
+        <v>Expected pregnancies (pop data)</v>
       </c>
       <c r="H27" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I27" s="5" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J27" s="5" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="str">
-        <v>ThhTw7jEPsC</v>
+        <v>fuIpFYTrp5m</v>
       </c>
       <c r="B28" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Death child intentional self-harm</v>
+        <v>[CONFIG] MAL - Percentage of cases (confirmed + presumed) treated with ACTs 0-4y</v>
       </c>
       <c r="C28" s="4" t="str">
-        <v>Death child intentional self-harm</v>
+        <v>Cases treated with ACTs 0-4 (%)</v>
       </c>
       <c r="D28" s="4" t="str">
-        <v>RMNCAH_DCISH</v>
+        <v>MAL_PER_OF_CASES_TREAT_ACTS_0-4</v>
       </c>
       <c r="E28" s="4" t="str">
-        <v>Number of child deaths due to intentional self-harm</v>
+        <v>(Number of full ACT treatment courses distributed to children under 5/ total number of malaria cases (confirmed+presumed))*100</v>
       </c>
       <c r="F28" s="4" t="str">
-        <v>Death child intentional self-harm</v>
+        <v>Treatment with ACT 0-4y</v>
       </c>
       <c r="G28" s="4" t="str">
-        <v>1</v>
+        <v>Confirmed malaria cases (confirmed + presumed) 0-4y</v>
       </c>
       <c r="H28" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I28" s="4" t="str">
-        <v>2019-04-28</v>
+        <v>2020-04-24</v>
       </c>
       <c r="J28" s="4" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>Qc4lDXPFGh7, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="str">
-        <v>nicBvg2xoZx</v>
+        <v>g8GiLWe3JzN</v>
       </c>
       <c r="B29" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Death child legal interventions and operations of war</v>
+        <v xml:space="preserve">[CONFIG] RMNCAH - Contraception first time user </v>
       </c>
       <c r="C29" s="5" t="str">
-        <v>Death child legal intervention and war</v>
+        <v xml:space="preserve">Contraception 1st time user </v>
       </c>
       <c r="D29" s="5" t="str">
-        <v>RMNCAH_DCLIOW</v>
+        <v>RMNCAH_FPFT</v>
       </c>
       <c r="E29" s="5" t="str">
-        <v>Number of child deaths due to legal intervention and war</v>
+        <v>Number of clients who accepted a family planning method for the 1st time</v>
       </c>
       <c r="F29" s="5" t="str">
-        <v>Death child legal interventions and operations of war</v>
+        <v>Contraception first time user</v>
       </c>
       <c r="G29" s="5" t="str">
         <v>1</v>
@@ -2221,62 +2229,62 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I29" s="5" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J29" s="5" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>RRcDhY8kEtf, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="str">
-        <v>U1Y5H3ruLPD</v>
+        <v>Gjex4LrpKbB</v>
       </c>
       <c r="B30" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Death child low birth weight and prematurity</v>
+        <v>[CONFIG] RMNCAH - Postpartum contraceptive acceptors - injectable (%)</v>
       </c>
       <c r="C30" s="4" t="str">
-        <v>Death child LBW and prematurity</v>
+        <v>Postpartum contracept injectable (%)</v>
       </c>
       <c r="D30" s="4" t="str">
-        <v>RMNCAH_DCLBWPRM</v>
+        <v>RMNCAH_FPPP_INJECT</v>
       </c>
       <c r="E30" s="4" t="str">
-        <v>Number of child deaths due to low birth weight and prematurity</v>
+        <v>Percentage of postpartum women delivering in facility initiating injectable as contraceptive method.</v>
       </c>
       <c r="F30" s="4" t="str">
-        <v>Death child low birth weight and prematurity</v>
+        <v>Postpartum woman initiated injectable before discharge after facility delivery</v>
       </c>
       <c r="G30" s="4" t="str">
-        <v>1</v>
+        <v xml:space="preserve"> Delivery in facility</v>
       </c>
       <c r="H30" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I30" s="4" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J30" s="4" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>RRcDhY8kEtf, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="str">
-        <v>bVi8tilV7uO</v>
+        <v>GkfXbG5tG1S</v>
       </c>
       <c r="B31" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Death child malaria</v>
+        <v>[CONFIG] RMNCAH - Child received treatment for pneumonia with Amoxicillin oral syrup</v>
       </c>
       <c r="C31" s="5" t="str">
-        <v>Death child malaria</v>
+        <v>Child treated for pneumonia Amoxicillin syrup</v>
       </c>
       <c r="D31" s="5" t="str">
-        <v>RMNCAH_DCMAL</v>
+        <v>RMNCAH_CRTPN_AMOX_OS</v>
       </c>
       <c r="E31" s="5" t="str">
-        <v>Number of child deaths due to malaria</v>
+        <v>Number of children who received treatment for pneumonia with Amoxicillin oral syrup</v>
       </c>
       <c r="F31" s="5" t="str">
-        <v>Death child malaria</v>
+        <v>Child received treatment for pneumonia with Amoxicillin</v>
       </c>
       <c r="G31" s="5" t="str">
         <v>1</v>
@@ -2285,94 +2293,94 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I31" s="5" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J31" s="5" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>Qc4lDXPFGh7, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="str">
-        <v>clN7gBXNEPT</v>
+        <v>Gl4aMQhoxS6</v>
       </c>
       <c r="B32" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Death child malnutrition</v>
+        <v>[CONFIG] RMNCAH - HIV PMTCT testing coverage rate - Tested HIV- (neg) during ANC (%)</v>
       </c>
       <c r="C32" s="4" t="str">
-        <v>Death child malnutrition</v>
+        <v>PMTCT testing coverage - tested HIV- (%)</v>
       </c>
       <c r="D32" s="4" t="str">
-        <v>RMNCAH_DCMLN</v>
+        <v>RMNCAH_PMTCT_TEST_COV_HIV-</v>
       </c>
       <c r="E32" s="4" t="str">
-        <v>Number of child deaths due to malnutrition</v>
+        <v xml:space="preserve">Percentage of antenatal clients who tested HIV- (neg) during ANC </v>
       </c>
       <c r="F32" s="4" t="str">
-        <v>Death child malnutrition</v>
+        <v>ANC clients who tested HIV- (neg) during ANC</v>
       </c>
       <c r="G32" s="4" t="str">
-        <v>1</v>
+        <v>ANC 1st visit</v>
       </c>
       <c r="H32" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I32" s="4" t="str">
-        <v>2019-04-28</v>
+        <v>2020-04-23</v>
       </c>
       <c r="J32" s="4" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="str">
-        <v>m3dbw4Or7xs</v>
+        <v>gnhcFIap1vN</v>
       </c>
       <c r="B33" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Death child measles</v>
+        <v>[CONFIG] RMNCAH - Postpartum received family planning counselling (%)</v>
       </c>
       <c r="C33" s="5" t="str">
-        <v>Death child measles</v>
+        <v>Postpartum FP counselling</v>
       </c>
       <c r="D33" s="5" t="str">
-        <v>RMNCAH_DCMSLS</v>
+        <v>RMNCAH_PP_FP_COUNS</v>
       </c>
       <c r="E33" s="5" t="str">
-        <v>Number of child deaths due to measles</v>
+        <v>Percentage of women delivering at facility counseled on postpartum family planning prior to discharge</v>
       </c>
       <c r="F33" s="5" t="str">
-        <v>Death child measles</v>
+        <v>Postpartum woman received FP counseling before discharge</v>
       </c>
       <c r="G33" s="5" t="str">
-        <v>1</v>
+        <v xml:space="preserve"> Delivery in facility</v>
       </c>
       <c r="H33" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I33" s="5" t="str">
-        <v>2019-04-28</v>
+        <v>2020-04-08</v>
       </c>
       <c r="J33" s="5" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>RRcDhY8kEtf, uDy8xg2ofrw, VQy2Db1ToNM</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="str">
-        <v>b9f35x2djwF</v>
+        <v>hEbQdwFHUzr</v>
       </c>
       <c r="B34" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Death child meningococcal infection</v>
+        <v>[CONFIG] RMNCAH - Death neonatal other neonatal conditions</v>
       </c>
       <c r="C34" s="4" t="str">
-        <v>Death child meningococcal infection</v>
+        <v>Death neonatal other neonatal conditions</v>
       </c>
       <c r="D34" s="4" t="str">
-        <v>RMNCAH_DCMI</v>
+        <v>RMNCAH_NDONC</v>
       </c>
       <c r="E34" s="4" t="str">
-        <v>Number of child deaths due to meningococcal infection</v>
+        <v>Number of Neonatal deaths due to other neonatal conditions</v>
       </c>
       <c r="F34" s="4" t="str">
-        <v>Death child meningococcal infection</v>
+        <v>Death neonatal other neonatal conditions</v>
       </c>
       <c r="G34" s="4" t="str">
         <v>1</v>
@@ -2381,30 +2389,30 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I34" s="4" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J34" s="4" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="5" t="str">
-        <v>t63W8x8sDvq</v>
+        <v>hFyOhDujxki</v>
       </c>
       <c r="B35" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Death child neoplasms</v>
+        <v>[CONFIG] RMNCAH - Death child 0-4y HIV</v>
       </c>
       <c r="C35" s="5" t="str">
-        <v>Death child neoplasms</v>
+        <v>Death child 0-4y HIV</v>
       </c>
       <c r="D35" s="5" t="str">
-        <v>RMNCAH_DCN</v>
+        <v>RMNCAH_DEATH_CHILD_0-4y_HIV</v>
       </c>
       <c r="E35" s="5" t="str">
-        <v>Number of child deaths due to neoplasms - abnormal mass of tissue growth, benign or malignant</v>
+        <v>Number of child deaths 0-4years due to opportunistic infections from HIV</v>
       </c>
       <c r="F35" s="5" t="str">
-        <v>Death child neoplasms</v>
+        <v>Death child 0-4y HIV</v>
       </c>
       <c r="G35" s="5" t="str">
         <v>1</v>
@@ -2413,30 +2421,30 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I35" s="5" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J35" s="5" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="str">
-        <v>J9K0zzwTlUY</v>
+        <v>hjoN5yNAHoP</v>
       </c>
       <c r="B36" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Death child unspecified cause</v>
+        <v>[CONFIG] RMNCAH - Birth still fresh</v>
       </c>
       <c r="C36" s="4" t="str">
-        <v>Death child unspecified cause</v>
+        <v>Stillbirth fresh</v>
       </c>
       <c r="D36" s="4" t="str">
-        <v>RMNCAH_DCUS</v>
+        <v>RMNCAH_SBF</v>
       </c>
       <c r="E36" s="4" t="str">
-        <v>Number of child deaths due to unspecified causes</v>
+        <v xml:space="preserve">Number of facility births where the infant was Stillbirth-fresh: Still birth is defined as infant born with no signs of life, weighting more than 1,000 g and older than 28 weeks gestation. An intrapartum foetal death (stillbirth - fresh), refers to a baby that has died after the onset of labour and before birth. </v>
       </c>
       <c r="F36" s="4" t="str">
-        <v>Death child unspecified</v>
+        <v>Stillbirths - fresh</v>
       </c>
       <c r="G36" s="4" t="str">
         <v>1</v>
@@ -2445,62 +2453,62 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I36" s="4" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J36" s="4" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="5" t="str">
-        <v>ALyeW8OBDrh</v>
+        <v>HPZunOd021x</v>
       </c>
       <c r="B37" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Death child whooping cough</v>
+        <v>[CONFIG] RMNCAH - ANC client syphilis treated (%)</v>
       </c>
       <c r="C37" s="5" t="str">
-        <v>Death child whooping cough</v>
+        <v>ANC syphilis treated (%)</v>
       </c>
       <c r="D37" s="5" t="str">
-        <v>RMNCAH_DCWC</v>
+        <v>RMNCAH_ANC_SYPH_TRT</v>
       </c>
       <c r="E37" s="5" t="str">
-        <v>Number of child deaths due to whooping cough</v>
+        <v>Percentage of antenatal clients treated for syphilis</v>
       </c>
       <c r="F37" s="5" t="str">
-        <v>Death child whooping cough</v>
+        <v>ANC clients treated for syphilis</v>
       </c>
       <c r="G37" s="5" t="str">
-        <v>1</v>
+        <v>ANC 1st visit</v>
       </c>
       <c r="H37" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I37" s="5" t="str">
-        <v>2019-04-28</v>
+        <v>2020-04-08</v>
       </c>
       <c r="J37" s="5" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="str">
-        <v>YQF5aH1USqa</v>
+        <v>HrNswM9rs4n</v>
       </c>
       <c r="B38" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Death neonatal birth trauma</v>
+        <v>[CONFIG] RMNCAH - Death neonatal pneumonia</v>
       </c>
       <c r="C38" s="4" t="str">
-        <v>Death neonatal birth trauma</v>
+        <v>Death neonatal pneumonia</v>
       </c>
       <c r="D38" s="4" t="str">
-        <v>RMNCAH_NDBT</v>
+        <v>RMNCAH_NDRSCD</v>
       </c>
       <c r="E38" s="4" t="str">
-        <v>Number of Neonatal deaths due to birth trauma</v>
+        <v>Number of Neonatal deaths due to pneumonia</v>
       </c>
       <c r="F38" s="4" t="str">
-        <v>Death neonatal birth trauma</v>
+        <v>Death neonatal pneumonia</v>
       </c>
       <c r="G38" s="4" t="str">
         <v>1</v>
@@ -2509,126 +2517,126 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I38" s="4" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J38" s="4" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="str">
-        <v>t3eSNlyXlSt</v>
+        <v>ids6pWvZmh3</v>
       </c>
       <c r="B39" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Death neonatal congenital malformations, deformations and abnormalities</v>
+        <v>[CONFIG] RMNCAH - Pneumonia treated with Amoxicillin oral syrup in children 0-9 years (%)</v>
       </c>
       <c r="C39" s="5" t="str">
-        <v>Death neonatal congenital abnormalities</v>
+        <v>Pneumonia treated with Amoxicillin syrup 0-9y (%)</v>
       </c>
       <c r="D39" s="5" t="str">
-        <v>RMNCAH_NDCA</v>
+        <v>RMNCAH_PNT_AMOX_OS</v>
       </c>
       <c r="E39" s="5" t="str">
-        <v>Number of Neonatal deaths due to congenital malformations</v>
+        <v>Percentage of children correctly diagnosed with pneumonia who received treatment with Amoxicillin oral syrup</v>
       </c>
       <c r="F39" s="5" t="str">
-        <v>Death neonatal congenital  birth defects: malformations, deformations and abnormalities</v>
+        <v>Children 0-9 years treated for pneumonia with amoxicillin oral syrup</v>
       </c>
       <c r="G39" s="5" t="str">
-        <v>1</v>
+        <v>Children 0-9 years diagnosed with pneumonia</v>
       </c>
       <c r="H39" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I39" s="5" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J39" s="5" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>Qc4lDXPFGh7, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="str">
-        <v>KCWfSkwvp2t</v>
+        <v>illIO5sBPjx</v>
       </c>
       <c r="B40" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Death neonatal convulsions disorders of cerebral status</v>
+        <v>[CONFIG] RMNCAH - Newborns treated for neonatal infection (%)</v>
       </c>
       <c r="C40" s="4" t="str">
-        <v>Death neonatal cerebral status</v>
+        <v>Newborns treated for neonatal infection (%)</v>
       </c>
       <c r="D40" s="4" t="str">
-        <v>RMNCAH_NDCCS</v>
+        <v>RMNCAH_NN_TRT_INFECTN</v>
       </c>
       <c r="E40" s="4" t="str">
-        <v>Number of Neonatal deaths due to convulsions and disorders of cerebral status</v>
+        <v>Percentage of births in health facility that are pre-term (less than 37 weeks gestation)</v>
       </c>
       <c r="F40" s="4" t="str">
-        <v>Death neonatal convulsions disorders of cerebral status</v>
+        <v>Number of newborns treated for neonatal infection</v>
       </c>
       <c r="G40" s="4" t="str">
-        <v>1</v>
+        <v>Number of live births in facility</v>
       </c>
       <c r="H40" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I40" s="4" t="str">
-        <v>2019-04-28</v>
+        <v>2020-04-08</v>
       </c>
       <c r="J40" s="4" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="5" t="str">
-        <v>EmksquFm4DJ</v>
+        <v>iRuJCkcGDov</v>
       </c>
       <c r="B41" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Death neonatal disorder related to foetal growth</v>
+        <v>[CONFIG] RMNCAH - Women with severe pre-eclampsia/ eclamspsia treated with loading dose of MgSO4 (%)</v>
       </c>
       <c r="C41" s="5" t="str">
-        <v>Death neonatal foetal growth</v>
+        <v>Pre-eclampsia/ eclamspsia treated MgSO4</v>
       </c>
       <c r="D41" s="5" t="str">
-        <v>RMNCAH_NDFG</v>
+        <v>RMNCAH_ECLAMP_MgSO4</v>
       </c>
       <c r="E41" s="5" t="str">
-        <v>Number of Neonatal deaths due to foetal growth issues</v>
+        <v>Percentage of women with severe pre-eclampsia/eclampsia who receive the initial dose of MgSO4 (loading dose) in health facility</v>
       </c>
       <c r="F41" s="5" t="str">
-        <v>Death neonatal disorder related to foetal growth</v>
+        <v>Number of women with severe pre-eclampsia/eclampsia who receive the initial dose of MgSO4</v>
       </c>
       <c r="G41" s="5" t="str">
-        <v>1</v>
+        <v xml:space="preserve"> Delivery in facility</v>
       </c>
       <c r="H41" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I41" s="5" t="str">
-        <v>2019-04-28</v>
+        <v>2020-04-23</v>
       </c>
       <c r="J41" s="5" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="str">
-        <v>zJnHulDK3si</v>
+        <v>IY9YdW4nbhE</v>
       </c>
       <c r="B42" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Death neonatal infection</v>
+        <v>[CONFIG] RMNCAH - Death child 0-4y diarrhoea</v>
       </c>
       <c r="C42" s="4" t="str">
-        <v>Death neonatal infection</v>
+        <v>Death child 0-4y diarrhoea</v>
       </c>
       <c r="D42" s="4" t="str">
-        <v>RMNCAH_NDIN</v>
+        <v>RMNCAH_DEATH_CHILD_0-4y_DIARR</v>
       </c>
       <c r="E42" s="4" t="str">
-        <v>Number of Neonatal deaths due to infections</v>
+        <v>Number of child deaths 0-4years due to diarrhoea, and the dehydration caused by diarrhoea</v>
       </c>
       <c r="F42" s="4" t="str">
-        <v>Death neonatal infection</v>
+        <v>Death child 0-4y diarrhoea</v>
       </c>
       <c r="G42" s="4" t="str">
         <v>1</v>
@@ -2637,30 +2645,30 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I42" s="4" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J42" s="4" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="5" t="str">
-        <v>roSz8mCKvXo</v>
+        <v>iyh3qMkbTe5</v>
       </c>
       <c r="B43" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Death neonatal intrapartum complication</v>
+        <v>[CONFIG] RMNCAH - Death child 5-9y malaria</v>
       </c>
       <c r="C43" s="5" t="str">
-        <v>Death neonatal intrapartum complication</v>
+        <v>Death child 5-9y malaria</v>
       </c>
       <c r="D43" s="5" t="str">
-        <v>RMNCAH_NDCIE</v>
+        <v>RMNCAH_DEATH_CHILD_5-9y_MAL</v>
       </c>
       <c r="E43" s="5" t="str">
-        <v>Number of Neonatal deaths due to intrapartum complication</v>
+        <v>Number of child deaths 5-9 years due to malaria</v>
       </c>
       <c r="F43" s="5" t="str">
-        <v>Death neonatal intrapartum complication</v>
+        <v>Death child 5-9y malaria</v>
       </c>
       <c r="G43" s="5" t="str">
         <v>1</v>
@@ -2669,94 +2677,94 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I43" s="5" t="str">
-        <v>2019-04-28</v>
+        <v>2020-04-27</v>
       </c>
       <c r="J43" s="5" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="str">
-        <v>aCJadIVZ815</v>
+        <v>IzgsCWHHGBG</v>
       </c>
       <c r="B44" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Death neonatal low birth weight and prematurity</v>
+        <v>[CONFIG] RMNCAH - ANC clients 1st visit before 12 weeks (%)</v>
       </c>
       <c r="C44" s="4" t="str">
-        <v>Death neonatal low birth weight prematurity</v>
+        <v>ANC 1st visit 0-11wks</v>
       </c>
       <c r="D44" s="4" t="str">
-        <v>RMNCAH_NDLBWPR</v>
+        <v>RMNCAH_ANC1_12W</v>
       </c>
       <c r="E44" s="4" t="str">
-        <v>Number of Neonatal deaths due to low birth weight prematurity</v>
+        <v>Percentage of antenatal clients who attended their 1st ANC visit before 12 weeks gestation</v>
       </c>
       <c r="F44" s="4" t="str">
-        <v>Death neonatal low birth weight and prematurity</v>
+        <v>ANC 1st visit before 12 weeks</v>
       </c>
       <c r="G44" s="4" t="str">
-        <v>1</v>
+        <v>ANC 1st visit</v>
       </c>
       <c r="H44" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I44" s="4" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J44" s="4" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="5" t="str">
-        <v>RO9sDGI6t0W</v>
+        <v>j5NrAAfsbsz</v>
       </c>
       <c r="B45" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Death neonatal miscellaneous</v>
+        <v>[CONFIG] RMNCAH - Postpartum contraceptive acceptors - other method (%)</v>
       </c>
       <c r="C45" s="5" t="str">
-        <v>Death neonatal miscellaneous</v>
+        <v>Postpartum contracept other (%)</v>
       </c>
       <c r="D45" s="5" t="str">
-        <v>RMNCAH_NDMS</v>
+        <v>RMNCAH_FPPP_OTHER</v>
       </c>
       <c r="E45" s="5" t="str">
-        <v>Number of Neonatal deaths due to miscellaneous causes</v>
+        <v>Percentage of postpartum women delivering in facility initiating other contraceptive method</v>
       </c>
       <c r="F45" s="5" t="str">
-        <v>Death neonatal miscellaneous</v>
+        <v>Postpartum woman initiated other contraceptive method before discharge after facility delivery</v>
       </c>
       <c r="G45" s="5" t="str">
-        <v>1</v>
+        <v xml:space="preserve"> Delivery in facility</v>
       </c>
       <c r="H45" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I45" s="5" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J45" s="5" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>RRcDhY8kEtf, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="str">
-        <v>hEbQdwFHUzr</v>
+        <v>J9K0zzwTlUY</v>
       </c>
       <c r="B46" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Death neonatal other neonatal conditions</v>
+        <v>[CONFIG] RMNCAH - Death child 5-9y all causes</v>
       </c>
       <c r="C46" s="4" t="str">
-        <v>Death neonatal other neonatal conditions</v>
+        <v>Death child 5-9y all causes</v>
       </c>
       <c r="D46" s="4" t="str">
-        <v>RMNCAH_NDONC</v>
+        <v>RMNCAH_DEATH_CHILD_5-9y_ALL</v>
       </c>
       <c r="E46" s="4" t="str">
-        <v>Number of Neonatal deaths due to other neonatal conditions</v>
+        <v>Number of child deaths 5-9 years due to all causes</v>
       </c>
       <c r="F46" s="4" t="str">
-        <v>Death neonatal other neonatal conditions</v>
+        <v>Death child 5-9y all causes</v>
       </c>
       <c r="G46" s="4" t="str">
         <v>1</v>
@@ -2765,62 +2773,62 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I46" s="4" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J46" s="4" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="5" t="str">
-        <v>HrNswM9rs4n</v>
+        <v>jkKEMhzQlhT</v>
       </c>
       <c r="B47" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Death neonatal respiratory and cardiovascular disorder</v>
+        <v>[CONFIG] RMNCAH - Female genital mutilation (FGM)</v>
       </c>
       <c r="C47" s="5" t="str">
-        <v>Death neonatal respiratory cardiovascular</v>
+        <v>Female genital mutilation (FGM)</v>
       </c>
       <c r="D47" s="5" t="str">
-        <v>RMNCAH_NDRSCD</v>
+        <v>RMNCAH_FGM</v>
       </c>
       <c r="E47" s="5" t="str">
-        <v>Number of Neonatal deaths due to respiratory cardiovascular causes</v>
+        <v>Number of women with Female genital mutilation (FGM) reported or observed</v>
       </c>
       <c r="F47" s="5" t="str">
-        <v>Death neonatal respiratory and cardiovascular disorder</v>
+        <v>Number Female genital mutilation (FGM)</v>
       </c>
       <c r="G47" s="5" t="str">
         <v>1</v>
       </c>
       <c r="H47" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I47" s="5" t="str">
-        <v>2019-04-28</v>
+        <v>2020-04-23</v>
       </c>
       <c r="J47" s="5" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>RRcDhY8kEtf, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="str">
-        <v>Zr4GSWRPQaM</v>
+        <v>jr9xTOXzDKJ</v>
       </c>
       <c r="B48" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Death neonatal unspecified cause</v>
+        <v>[CONFIG] RMNCAH - Death child 5-9y diarrhoeal diseases</v>
       </c>
       <c r="C48" s="4" t="str">
-        <v>Death neonatal unspecified cause</v>
+        <v>Death child 5-9y diarrhoeal diseases</v>
       </c>
       <c r="D48" s="4" t="str">
-        <v>RMNCAH_NDUSC</v>
+        <v>RMNCAH_DEATH_CHILD_5-9y_DIARR</v>
       </c>
       <c r="E48" s="4" t="str">
-        <v>Number of Neonatal deaths due to unspecified cause</v>
+        <v>Number of child deaths 5-9 years due to diarrhoea, and the dehydration caused by diarrhoea</v>
       </c>
       <c r="F48" s="4" t="str">
-        <v>Death neonatal unspecified cause</v>
+        <v>Death child 5-9y diarrhoeal diseases</v>
       </c>
       <c r="G48" s="4" t="str">
         <v>1</v>
@@ -2829,30 +2837,30 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I48" s="4" t="str">
-        <v>2019-04-28</v>
+        <v>2020-04-27</v>
       </c>
       <c r="J48" s="4" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="5" t="str">
-        <v>kKq3dRugzhF</v>
+        <v>JUD9VmMvrI0</v>
       </c>
       <c r="B49" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Deaths children 1 month-9 years</v>
+        <v>[CONFIG] RMNCAH - Death perinatal in facility</v>
       </c>
       <c r="C49" s="5" t="str">
-        <v>Deaths children 1m-9y</v>
+        <v>Death perinatal in facility</v>
       </c>
       <c r="D49" s="5" t="str">
-        <v>RMNCAH_CD</v>
+        <v>RMNCAH_PD</v>
       </c>
       <c r="E49" s="5" t="str">
-        <v>Number of children 1 month to 9 years who die in the health facility.</v>
+        <v>Death of a fetus or a newborn in the perinatal period commences at 22 weeks (154 days) of gestation, until 7 days after birth (WHO)</v>
       </c>
       <c r="F49" s="5" t="str">
-        <v>Death child 1m-9y</v>
+        <v xml:space="preserve"> Death perinatal in facility</v>
       </c>
       <c r="G49" s="5" t="str">
         <v>1</v>
@@ -2861,30 +2869,30 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I49" s="5" t="str">
-        <v>2019-04-28</v>
+        <v>2020-04-23</v>
       </c>
       <c r="J49" s="5" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="str">
-        <v>MzYEREexpDM</v>
+        <v>JWVdWMhNGSI</v>
       </c>
       <c r="B50" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Deaths maternal</v>
+        <v xml:space="preserve">[CONFIG] RMNCAH - ANC clients 1st visit before 12 weeks </v>
       </c>
       <c r="C50" s="4" t="str">
-        <v>Deaths maternal</v>
+        <v xml:space="preserve">ANC 1st visit 0-11wks </v>
       </c>
       <c r="D50" s="4" t="str">
-        <v>RMNCAH_MD</v>
+        <v/>
       </c>
       <c r="E50" s="4" t="str">
-        <v>Number of maternal deaths in facility. Note: This can include women who gave birth outside a facility.</v>
+        <v/>
       </c>
       <c r="F50" s="4" t="str">
-        <v>Death maternal</v>
+        <v>ANC clients 1st visit before 12 weeks (n)</v>
       </c>
       <c r="G50" s="4" t="str">
         <v>1</v>
@@ -2893,62 +2901,62 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I50" s="4" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J50" s="4" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="5" t="str">
-        <v>ccsNVDSzNfX</v>
+        <v>K4lCaYeEMvM</v>
       </c>
       <c r="B51" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Deaths maternal audited (%)</v>
+        <v>[CONFIG] RMNCAH - Contraception first time user by method</v>
       </c>
       <c r="C51" s="5" t="str">
-        <v>Deaths maternal audited (%)</v>
+        <v xml:space="preserve">Contraception 1st time user </v>
       </c>
       <c r="D51" s="5" t="str">
-        <v>RMNCAH_MDA</v>
+        <v>RMNCAH_FPFT_M</v>
       </c>
       <c r="E51" s="5" t="str">
-        <v>Percentage of maternal deaths audited.</v>
+        <v>Number of clients who accepted a family planning method for the 1st time disaggregated by method</v>
       </c>
       <c r="F51" s="5" t="str">
-        <v>Death maternal audited</v>
+        <v>Contraception first time user</v>
       </c>
       <c r="G51" s="5" t="str">
-        <v>Death maternal</v>
+        <v>1</v>
       </c>
       <c r="H51" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I51" s="5" t="str">
-        <v>2019-04-28</v>
+        <v>2020-04-02</v>
       </c>
       <c r="J51" s="5" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>RRcDhY8kEtf, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="4" t="str">
-        <v>aoUZk8o1ula</v>
+        <v>KCWfSkwvp2t</v>
       </c>
       <c r="B52" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Deaths neonatal</v>
+        <v>[CONFIG] RMNCAH - Death neonatal diarrhoea</v>
       </c>
       <c r="C52" s="4" t="str">
-        <v>Deaths neonatal</v>
+        <v>Death neonatal diarrhoea</v>
       </c>
       <c r="D52" s="4" t="str">
-        <v>RMNCAH_NND</v>
+        <v>RMNCAH_DEATH_NEO_DIARR</v>
       </c>
       <c r="E52" s="4" t="str">
-        <v>Number of newborns who die in the health facility in the first 28 days. Note: This includes any neonatal death in a facility that occurred in the first 28 days – pre-discharge after birth or upon re- admission for an illness.</v>
+        <v>Number of Neonatal deaths due to diarrhoea</v>
       </c>
       <c r="F52" s="4" t="str">
-        <v>Death neonatal</v>
+        <v>Death neonatal diarrhoea</v>
       </c>
       <c r="G52" s="4" t="str">
         <v>1</v>
@@ -2957,62 +2965,62 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I52" s="4" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J52" s="4" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="5" t="str">
-        <v>n6R5483SG14</v>
+        <v>KifLPgn8kkk</v>
       </c>
       <c r="B53" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Deaths perinatal audited (%)</v>
+        <v>[CONFIG] RMNCAH - Postpartum contraceptive acceptors - implant (%)</v>
       </c>
       <c r="C53" s="5" t="str">
-        <v>Deaths perinatal audited (%)</v>
+        <v>Postpartum contracept implant (%)</v>
       </c>
       <c r="D53" s="5" t="str">
-        <v>RMNCAH_PDA</v>
+        <v>RMNCAH_FPPP_IMPL</v>
       </c>
       <c r="E53" s="5" t="str">
-        <v>Percentage of perinatal deaths audited.</v>
+        <v>Percentage of postpartum women delivering in facility initiating implant as contraceptive method.</v>
       </c>
       <c r="F53" s="5" t="str">
-        <v>Death perinatal audited</v>
+        <v>Postpartum woman initiated implant before discharge after facility delivery</v>
       </c>
       <c r="G53" s="5" t="str">
-        <v>Death perinatal</v>
+        <v xml:space="preserve"> Delivery in facility</v>
       </c>
       <c r="H53" s="5" t="str">
         <v>Percentage</v>
       </c>
       <c r="I53" s="5" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J53" s="5" t="str">
-        <v>uDy8xg2ofrw, lO4bfTs7T8G</v>
+        <v>RRcDhY8kEtf, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="4" t="str">
-        <v>Qgu1gY7fKiC</v>
+        <v>kKq3dRugzhF</v>
       </c>
       <c r="B54" s="4" t="str">
-        <v xml:space="preserve">[CONFIG] RMNCAH - Delivery in facility </v>
+        <v>[CONFIG] RMNCAH - Deaths children 1 month-9 years</v>
       </c>
       <c r="C54" s="4" t="str">
-        <v xml:space="preserve">Delivery in facility </v>
+        <v>Deaths children 1m-9y</v>
       </c>
       <c r="D54" s="4" t="str">
-        <v>RMNCAH_DELIV_HF</v>
+        <v>RMNCAH_CD</v>
       </c>
       <c r="E54" s="4" t="str">
-        <v/>
+        <v>Number of children 1 month to 9 years who die in the health facility.</v>
       </c>
       <c r="F54" s="4" t="str">
-        <v>Delivery in facility</v>
+        <v>Death child 1m-9y</v>
       </c>
       <c r="G54" s="4" t="str">
         <v>1</v>
@@ -3021,170 +3029,170 @@
         <v>Numerator only (number)</v>
       </c>
       <c r="I54" s="4" t="str">
-        <v>2019-05-24</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J54" s="4" t="str">
-        <v>uDy8xg2ofrw</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="5" t="str">
-        <v>mGNOMd9KSEX</v>
+        <v>KlAhwKD5lYm</v>
       </c>
       <c r="B55" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Delivery in facility Caesarean Section</v>
+        <v>[CONFIG] RMNCAH - Female genital mutilation (FGM) (%)</v>
       </c>
       <c r="C55" s="5" t="str">
-        <v>Delivery C/S</v>
+        <v>Female genital mutilation (FGM)%</v>
       </c>
       <c r="D55" s="5" t="str">
-        <v>RMNCAH_DLV_HF_CS</v>
+        <v>RMNCAH_FGM%</v>
       </c>
       <c r="E55" s="5" t="str">
-        <v/>
+        <v>Percentage of women with Female genital mutilation (FGM) reported or observed</v>
       </c>
       <c r="F55" s="5" t="str">
-        <v>Delivery by Caesarean section</v>
+        <v>Number Female genital mutilation (FGM)</v>
       </c>
       <c r="G55" s="5" t="str">
-        <v>1</v>
+        <v>ANC 1st visit</v>
       </c>
       <c r="H55" s="5" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="I55" s="5" t="str">
-        <v>2019-06-11</v>
+        <v>2020-04-23</v>
       </c>
       <c r="J55" s="5" t="str">
-        <v>uDy8xg2ofrw</v>
+        <v>RRcDhY8kEtf, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="str">
-        <v>Z2Df1NeNaEj</v>
+        <v>kQjyaO9FBtb</v>
       </c>
       <c r="B56" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Diarrhoea treated with ORS and zinc in children 0-9 years (%)</v>
+        <v>[CONFIG] RMNCAH - Postpartum contraceptive acceptors - pill (%)</v>
       </c>
       <c r="C56" s="4" t="str">
-        <v>Diarrhoea treated ORS+Zinc 0-9y (%)</v>
+        <v>Postpartum contracept pil (%)</v>
       </c>
       <c r="D56" s="4" t="str">
-        <v>RMNCAH_DT_ORSZINC</v>
+        <v>RMNCAH_FPPP_PILL</v>
       </c>
       <c r="E56" s="4" t="str">
-        <v>Percentage of children diagnosed with diarrhoea who received treatment with ORS and Zinc.</v>
+        <v>Percentage of postpartum women delivering in facility initiating pill as contraceptive method.</v>
       </c>
       <c r="F56" s="4" t="str">
-        <v>Children 0-9 years treated for diarrhoea with ORS</v>
+        <v>Postpartum woman initiated contraceptive pill before discharge after facility delivery</v>
       </c>
       <c r="G56" s="4" t="str">
-        <v>Children 0-9 years diagnosed with diarrhoea</v>
+        <v xml:space="preserve"> Delivery in facility</v>
       </c>
       <c r="H56" s="4" t="str">
         <v>Percentage</v>
       </c>
       <c r="I56" s="4" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J56" s="4" t="str">
-        <v>uDy8xg2ofrw, Qc4lDXPFGh7</v>
+        <v>RRcDhY8kEtf, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="5" t="str">
-        <v>nqn330c9jOa</v>
+        <v>KwM3KUO7kg4</v>
       </c>
       <c r="B57" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Diarrhoea treated with ORS in children 0-9 years (%)</v>
+        <v>[CONFIG] RMNCAH - Postnatal care newborns (%)</v>
       </c>
       <c r="C57" s="5" t="str">
-        <v>Diarrhoea treated ORS 0-9y (%)</v>
+        <v>Postnatal care newborns (%)</v>
       </c>
       <c r="D57" s="5" t="str">
-        <v>RMNCAH_DT_ORS</v>
+        <v>RMNCAH_PPNBV</v>
       </c>
       <c r="E57" s="5" t="str">
-        <v>Percentage of children diagnosed with diarrhoea who received treatment with ORS.</v>
+        <v>Percentage of newborns with postnatal check. Note: The numerator includes both children born in the health facility and those born outside the health facility.</v>
       </c>
       <c r="F57" s="5" t="str">
-        <v>Children 0-9 years treated for diarrhoea with ORS</v>
+        <v>Newborn with at least 1 PNC visit</v>
       </c>
       <c r="G57" s="5" t="str">
-        <v>Children 0-9 years diagnosed with diarrhoea</v>
+        <v>Live births in facility</v>
       </c>
       <c r="H57" s="5" t="str">
         <v>Percentage</v>
       </c>
       <c r="I57" s="5" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J57" s="5" t="str">
-        <v>uDy8xg2ofrw, Qc4lDXPFGh7</v>
+        <v>NBoBsBLsTOW, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="4" t="str">
-        <v>k1QRv1lrOQs</v>
+        <v>kZ3uuGsjfBH</v>
       </c>
       <c r="B58" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Diarrhoea treated with zinc in children 0-9 years (%)</v>
+        <v>[CONFIG] RMNCAH - ANC clients with haemoglobin measured (%)</v>
       </c>
       <c r="C58" s="4" t="str">
-        <v>Diarrhoea treated zinc 0-9y (%)</v>
+        <v>ANC HB measured (%)</v>
       </c>
       <c r="D58" s="4" t="str">
-        <v>RMNCAH_DT_ZINC</v>
+        <v>RMNCAH_ANCHB</v>
       </c>
       <c r="E58" s="4" t="str">
-        <v>Percentage of children diagnosed with diarrhoea who received treatment with zinc.</v>
+        <v>Percentage of antenatal clients with haemoglobin level measured.</v>
       </c>
       <c r="F58" s="4" t="str">
-        <v>Children 0-9 years treated for diarrhoea with zinc</v>
+        <v>ANC clients with haemoglobin level measured</v>
       </c>
       <c r="G58" s="4" t="str">
-        <v>Children 0-9 years diagnosed with diarrhoea</v>
+        <v>ANC 1st visit</v>
       </c>
       <c r="H58" s="4" t="str">
         <v>Percentage</v>
       </c>
       <c r="I58" s="4" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J58" s="4" t="str">
-        <v>uDy8xg2ofrw, Qc4lDXPFGh7</v>
+        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="5" t="str">
-        <v>UX5BdEApNEI</v>
+        <v>LBkdosq7QjD</v>
       </c>
       <c r="B59" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Diarrhoea treatment in children 0-9 years (%)</v>
+        <v>[CONFIG] RMNCAH - Death child 0-4y other infections</v>
       </c>
       <c r="C59" s="5" t="str">
-        <v>Diarrhoea treatment 0-9y (%)</v>
+        <v>Death child 0-4y other infections</v>
       </c>
       <c r="D59" s="5" t="str">
-        <v>RMNCAH_DT</v>
+        <v>RMNCAH_DEATH_CHILD_0-4y_OTH_INF</v>
       </c>
       <c r="E59" s="5" t="str">
-        <v>Percentage of children diagnosed with diarrhoea who received treatment.</v>
+        <v>Number of child deaths 0-4 years due to other infections</v>
       </c>
       <c r="F59" s="5" t="str">
-        <v>Children 0-9 years treated for diarrhoea</v>
+        <v>Death child 0-4y other infections</v>
       </c>
       <c r="G59" s="5" t="str">
-        <v>Children 0-9 years diagnosed with diarrhoea</v>
+        <v>1</v>
       </c>
       <c r="H59" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I59" s="5" t="str">
-        <v>2019-04-28</v>
+        <v>2020-04-27</v>
       </c>
       <c r="J59" s="5" t="str">
-        <v>uDy8xg2ofrw, Qc4lDXPFGh7</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="60">
@@ -3207,13 +3215,13 @@
         <v>Institutional deliveries</v>
       </c>
       <c r="G60" s="4" t="str">
-        <v>Expected pregnancies</v>
+        <v>Estimated number of live births</v>
       </c>
       <c r="H60" s="4" t="str">
         <v>Percentage</v>
       </c>
       <c r="I60" s="4" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J60" s="4" t="str">
         <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
@@ -3221,470 +3229,470 @@
     </row>
     <row r="61">
       <c r="A61" s="5" t="str">
-        <v>ZNz5XzwJZK5</v>
+        <v>LRufo0zqmvg</v>
       </c>
       <c r="B61" s="5" t="str">
-        <v>[CONFIG] RMNCAH - IPTp1 coverage (%)</v>
+        <v>[CONFIG] RMNCAH - Pneumonia number diagnosed in children 5-9 years</v>
       </c>
       <c r="C61" s="5" t="str">
-        <v>IPTp1 coverage (%)</v>
+        <v>Pneumonia diagnosis 5-9y</v>
       </c>
       <c r="D61" s="5" t="str">
-        <v>RMNCAH_IPTP1_COV</v>
+        <v>RMNCAH_PND_5-9</v>
       </c>
       <c r="E61" s="5" t="str">
-        <v>Percentage of expected pregnant women who received the first dose of IPTp: Intermittent preventive therapy for malaria during pregnancy</v>
+        <v>Number of children aged 5-9 years correctly diagnosed with pneumonia.</v>
       </c>
       <c r="F61" s="5" t="str">
-        <v>IPTp 1st dose</v>
+        <v>Children diagnosed with pneumonia 5-9 years</v>
       </c>
       <c r="G61" s="5" t="str">
-        <v>Expected pregnancies (pop data) in areas with risk of malaria</v>
+        <v>1</v>
       </c>
       <c r="H61" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I61" s="5" t="str">
-        <v>2019-04-28</v>
+        <v>2020-04-13</v>
       </c>
       <c r="J61" s="5" t="str">
-        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
+        <v>uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="4" t="str">
-        <v>eM54myJGX6k</v>
+        <v>m3dbw4Or7xs</v>
       </c>
       <c r="B62" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Normal delivery rate (%)</v>
+        <v>[CONFIG] RMNCAH - Death child 0-4y measles</v>
       </c>
       <c r="C62" s="4" t="str">
-        <v>Normal delivery rate (%)</v>
+        <v>Death child 0-4y measles</v>
       </c>
       <c r="D62" s="4" t="str">
-        <v>RMNCAH_ND</v>
+        <v>RMNCAH_DEATH_CHILD_0-4y_MSLS</v>
       </c>
       <c r="E62" s="4" t="str">
-        <v>Percentage of deliveries in health facilities that are normal (not assisted or by C/S)</v>
+        <v>Number of child deaths 0-4 years due to measles</v>
       </c>
       <c r="F62" s="4" t="str">
-        <v>Delivery in facility - Normal</v>
+        <v>Death child 0-4y measles</v>
       </c>
       <c r="G62" s="4" t="str">
-        <v>Delivery in facility</v>
+        <v>1</v>
       </c>
       <c r="H62" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I62" s="4" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J62" s="4" t="str">
-        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="5" t="str">
-        <v>ids6pWvZmh3</v>
+        <v>MfHDRuISx5E</v>
       </c>
       <c r="B63" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Pneumonia treated with amoxicillin in children 0-9 years (%)</v>
+        <v>[CONFIG] RMNCAH - Death child 0-4y injuries</v>
       </c>
       <c r="C63" s="5" t="str">
-        <v>Pneumonia treated with amoxicillin 0-9y (%)</v>
+        <v>Child death 0-4y injuries</v>
       </c>
       <c r="D63" s="5" t="str">
-        <v>RMNCAH_PNT_AMOX</v>
+        <v>RMNCAH_DEATH_CHILD_0-4y_INJ</v>
       </c>
       <c r="E63" s="5" t="str">
-        <v>Percentage of children correctly diagnosed with pneumonia who received treatment with amoxicillin.</v>
+        <v>Number of child deaths 0-4years due to injuries</v>
       </c>
       <c r="F63" s="5" t="str">
-        <v>Children 0-9 years treated for pneumonia with amoxicillin</v>
+        <v>Death child 0-4y injuries</v>
       </c>
       <c r="G63" s="5" t="str">
-        <v>Children 0-9 years diagnosed with pneumonia</v>
+        <v>1</v>
       </c>
       <c r="H63" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I63" s="5" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J63" s="5" t="str">
-        <v>uDy8xg2ofrw, Qc4lDXPFGh7</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="4" t="str">
-        <v>qRfZ7sdScVv</v>
+        <v>mGNOMd9KSEX</v>
       </c>
       <c r="B64" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Pneumonia treated with non-antibiotic medication in children 0-9 years (%)</v>
+        <v>[CONFIG] RMNCAH - Delivery in facility Caesarean Section</v>
       </c>
       <c r="C64" s="4" t="str">
-        <v>Pneumonia treated other medication 0-9y (%)</v>
+        <v>Delivery C/S</v>
       </c>
       <c r="D64" s="4" t="str">
-        <v>RMNCAH_PNT_OTHER</v>
+        <v>RMNCAH_DLV_HF_CS</v>
       </c>
       <c r="E64" s="4" t="str">
-        <v>Percentage of children correctly diagnosed with pneumonia who received treatment with other (non-antibiotic) medication</v>
+        <v/>
       </c>
       <c r="F64" s="4" t="str">
-        <v>Children 0-9 years treated for pneumonia with other medication than antibiotics</v>
+        <v>Delivery by Caesarean section</v>
       </c>
       <c r="G64" s="4" t="str">
-        <v>Children 0-9 years diagnosed with pneumonia</v>
+        <v>1</v>
       </c>
       <c r="H64" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I64" s="4" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J64" s="4" t="str">
-        <v>uDy8xg2ofrw, Qc4lDXPFGh7</v>
+        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="5" t="str">
-        <v>oCvwO2UvZD1</v>
+        <v>mX4OsXFUW5A</v>
       </c>
       <c r="B65" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Pneumonia treated with other antibiotic in children 0-9 years (%)</v>
+        <v>[CONFIG] RMNCAH - Caesarean section rate in institutional deliveries (%)</v>
       </c>
       <c r="C65" s="5" t="str">
-        <v>Pneumonia treated with other antibiotic 0-9y (%)</v>
+        <v>C/S institutional delivery rate (%)</v>
       </c>
       <c r="D65" s="5" t="str">
-        <v>RMNCAH_PNT_OAB</v>
+        <v>RMNCAH_CS</v>
       </c>
       <c r="E65" s="5" t="str">
-        <v>Percentage of children correctly diagnosed with pneumonia who received treatment with an antibiotic other than amoxicillin.</v>
+        <v>Percentage of deliveries in health facilities that are caesarean sections</v>
       </c>
       <c r="F65" s="5" t="str">
-        <v>Children 0-9 years treated for pneumonia with other antibiotic than amoxicillin</v>
+        <v>Delivery in facility - Caesarean Section</v>
       </c>
       <c r="G65" s="5" t="str">
-        <v>Children 0-9 years diagnosed with pneumonia</v>
+        <v>Delivery in facility</v>
       </c>
       <c r="H65" s="5" t="str">
         <v>Percentage</v>
       </c>
       <c r="I65" s="5" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J65" s="5" t="str">
-        <v>uDy8xg2ofrw, Qc4lDXPFGh7</v>
+        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="4" t="str">
-        <v>DWO9EyfG3Fl</v>
+        <v>MzYEREexpDM</v>
       </c>
       <c r="B66" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Pneumonia treatment in children 0-9 years (%)</v>
+        <v>[CONFIG] RMNCAH - Deaths maternal in facility</v>
       </c>
       <c r="C66" s="4" t="str">
-        <v>Pneumonia treatment 0-9y (%)</v>
+        <v>Deaths maternal facility</v>
       </c>
       <c r="D66" s="4" t="str">
-        <v>RMNCAH_PNT</v>
+        <v>RMNCAH_MD</v>
       </c>
       <c r="E66" s="4" t="str">
-        <v>Percentage of children correctly diagnosed with pneumonia who received treatment.</v>
+        <v>Number of maternal deaths in facility. Note: This can include women who gave birth outside a facility.</v>
       </c>
       <c r="F66" s="4" t="str">
-        <v>Children 0-9 years treated for pneumonia</v>
+        <v>Death maternal</v>
       </c>
       <c r="G66" s="4" t="str">
-        <v>Children 0-9 years diagnosed with pneumonia</v>
+        <v>1</v>
       </c>
       <c r="H66" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I66" s="4" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J66" s="4" t="str">
-        <v>uDy8xg2ofrw, Qc4lDXPFGh7</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="5" t="str">
-        <v>ePPf0F5klqt</v>
+        <v>n6R5483SG14</v>
       </c>
       <c r="B67" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Postnatal care mother (%)</v>
+        <v>[CONFIG] RMNCAH - Deaths perinatal reviewed (%)</v>
       </c>
       <c r="C67" s="5" t="str">
-        <v>Postnatal care mother (%)</v>
+        <v>Deaths perinatal reviewed (%)</v>
       </c>
       <c r="D67" s="5" t="str">
-        <v>RMNCAH_PPMV</v>
+        <v>RMNCAH_PDRV</v>
       </c>
       <c r="E67" s="5" t="str">
-        <v>Percentage of women with postnatal check. Note: The numerator includes both women who gave birth in the health facility and those who gave birth outside the health facility.</v>
+        <v>Percentage of perinatal deaths reviewed.</v>
       </c>
       <c r="F67" s="5" t="str">
-        <v>Postpartum woman with at least 1 PNC visit</v>
+        <v>Death perinatal audited</v>
       </c>
       <c r="G67" s="5" t="str">
-        <v>Delivery in facility</v>
+        <v>Death perinatal</v>
       </c>
       <c r="H67" s="5" t="str">
         <v>Percentage</v>
       </c>
       <c r="I67" s="5" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J67" s="5" t="str">
-        <v>uDy8xg2ofrw, NBoBsBLsTOW</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="4" t="str">
-        <v>o63QMqOyYg7</v>
+        <v>nicBvg2xoZx</v>
       </c>
       <c r="B68" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Postnatal care mother on time (%)</v>
+        <v>[CONFIG] RMNCAH - Death child 0-4y sepsis</v>
       </c>
       <c r="C68" s="4" t="str">
-        <v>PNC mother timely (%)</v>
+        <v>Death child 0-4y sepsis</v>
       </c>
       <c r="D68" s="4" t="str">
-        <v>RMNCAH_PPMTV</v>
+        <v>RMNCAH_DEATH_CHILD_0-4y_SPSIS</v>
       </c>
       <c r="E68" s="4" t="str">
-        <v>Percentage of women with timely postnatal check. Timely refers to national guidelines.</v>
+        <v>Number of child deaths 0-4 years due to sepsis</v>
       </c>
       <c r="F68" s="4" t="str">
-        <v>Postpartum woman timely 1st PNC visit</v>
+        <v>Death child 0-4y sepsis</v>
       </c>
       <c r="G68" s="4" t="str">
-        <v>Delivery in facility</v>
+        <v>1</v>
       </c>
       <c r="H68" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I68" s="4" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J68" s="4" t="str">
-        <v>uDy8xg2ofrw, NBoBsBLsTOW</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="5" t="str">
-        <v>KwM3KUO7kg4</v>
+        <v>nqn330c9jOa</v>
       </c>
       <c r="B69" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Postnatal care newborns (%)</v>
+        <v>[CONFIG] RMNCAH - Diarrhoea treated with ORS only in children 0-9 years (%)</v>
       </c>
       <c r="C69" s="5" t="str">
-        <v>Postnatal care newborns (%)</v>
+        <v>Diarrhoea treated ORS only 0-9y (%)</v>
       </c>
       <c r="D69" s="5" t="str">
-        <v>RMNCAH_PPNBV</v>
+        <v>RMNCAH_DT_ORS</v>
       </c>
       <c r="E69" s="5" t="str">
-        <v>Percentage of newborns with postnatal check. Note: The numerator includes both children born in the health facility and those born outside the health facility.</v>
+        <v>Percentage of children diagnosed with diarrhoea who received treatment with ORS only.</v>
       </c>
       <c r="F69" s="5" t="str">
-        <v>Newborn with at least 1 PNC visit</v>
+        <v>Children 0-9 years treated for diarrhoea with ORS only</v>
       </c>
       <c r="G69" s="5" t="str">
-        <v>Live births in facility</v>
+        <v>Children 0-9 years diagnosed with diarrhoea</v>
       </c>
       <c r="H69" s="5" t="str">
         <v>Percentage</v>
       </c>
       <c r="I69" s="5" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J69" s="5" t="str">
-        <v>uDy8xg2ofrw, NBoBsBLsTOW</v>
+        <v>Qc4lDXPFGh7, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="4" t="str">
-        <v>bFFptiqjRAk</v>
+        <v>o63QMqOyYg7</v>
       </c>
       <c r="B70" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Postnatal care newborns on time (%)</v>
+        <v>[CONFIG] RMNCAH - Postnatal care mother on time (%)</v>
       </c>
       <c r="C70" s="4" t="str">
-        <v>Postnatal care newborns timely (%)</v>
+        <v>PNC mother timely (%)</v>
       </c>
       <c r="D70" s="4" t="str">
-        <v>RMNCAH_PPNBTV</v>
+        <v>RMNCAH_PPMTV</v>
       </c>
       <c r="E70" s="4" t="str">
-        <v>Percentage of newborns with timely postnatal check according to national guidelines.</v>
+        <v>Percentage of women with timely postnatal check. Timely refers to national guidelines.</v>
       </c>
       <c r="F70" s="4" t="str">
-        <v>Postpartum neonate timely 1st PNC visit</v>
+        <v>Postpartum woman timely 1st PNC visit</v>
       </c>
       <c r="G70" s="4" t="str">
-        <v>Live births in facility</v>
+        <v>Delivery in facility</v>
       </c>
       <c r="H70" s="4" t="str">
         <v>Percentage</v>
       </c>
       <c r="I70" s="4" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J70" s="4" t="str">
-        <v>uDy8xg2ofrw, NBoBsBLsTOW</v>
+        <v>NBoBsBLsTOW, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="5" t="str">
-        <v>wbAmtpfMvJ8</v>
+        <v>oCvwO2UvZD1</v>
       </c>
       <c r="B71" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Postpartum contraceptive acceptors - condom (%)</v>
+        <v>[CONFIG] RMNCAH - Pneumonia treated with other antibiotic in children 0-9 years (%)</v>
       </c>
       <c r="C71" s="5" t="str">
-        <v>Postpartum contracept condom (%)</v>
+        <v>Pneumonia treated with other antibiotic 0-9y (%)</v>
       </c>
       <c r="D71" s="5" t="str">
-        <v>RMNCAH_FPPP_CON</v>
+        <v>RMNCAH_PNT_OAB</v>
       </c>
       <c r="E71" s="5" t="str">
-        <v>Percentage of postpartum women delivering in facility initiating condom as contraceptive method.</v>
+        <v>Percentage of children correctly diagnosed with pneumonia who received treatment with an antibiotic other than amoxicillin.</v>
       </c>
       <c r="F71" s="5" t="str">
-        <v>Postpartum woman initiated Condom before discharge after facility delivery</v>
+        <v>Children 0-9 years treated for pneumonia with other antibiotic than amoxicillin</v>
       </c>
       <c r="G71" s="5" t="str">
-        <v xml:space="preserve"> Delivery in facility</v>
+        <v>Children 0-9 years diagnosed with pneumonia</v>
       </c>
       <c r="H71" s="5" t="str">
         <v>Percentage</v>
       </c>
       <c r="I71" s="5" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J71" s="5" t="str">
-        <v>uDy8xg2ofrw, RRcDhY8kEtf</v>
+        <v>Qc4lDXPFGh7, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="4" t="str">
-        <v>KifLPgn8kkk</v>
+        <v>OjGUSxKM05J</v>
       </c>
       <c r="B72" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Postpartum contraceptive acceptors - implant (%)</v>
+        <v>[CONFIG] RMNCAH - Pneumonia treated with Amoxicillin dispersed tablet in children 0-9 years (%)</v>
       </c>
       <c r="C72" s="4" t="str">
-        <v>Postpartum contracept implant (%)</v>
+        <v>Pneumonia treated with Amoxicillin tablet 0-9y (%)</v>
       </c>
       <c r="D72" s="4" t="str">
-        <v>RMNCAH_FPPP_IMPL</v>
+        <v>RMNCAH_PNT_AMOX_TAB</v>
       </c>
       <c r="E72" s="4" t="str">
-        <v>Percentage of postpartum women delivering in facility initiating implant as contraceptive method.</v>
+        <v>Percentage of children correctly diagnosed with pneumonia who received treatment with Amoxicillin dispersed tablet</v>
       </c>
       <c r="F72" s="4" t="str">
-        <v>Postpartum woman initiated implant before discharge after facility delivery</v>
+        <v>Children 0-9 years treated for pneumonia with amoxicillin dispersed tablet</v>
       </c>
       <c r="G72" s="4" t="str">
-        <v xml:space="preserve"> Delivery in facility</v>
+        <v>Children 0-9 years diagnosed with pneumonia</v>
       </c>
       <c r="H72" s="4" t="str">
         <v>Percentage</v>
       </c>
       <c r="I72" s="4" t="str">
-        <v>2019-04-28</v>
+        <v>2020-04-07</v>
       </c>
       <c r="J72" s="4" t="str">
-        <v>uDy8xg2ofrw, RRcDhY8kEtf</v>
+        <v>Qc4lDXPFGh7, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="5" t="str">
-        <v>Gjex4LrpKbB</v>
+        <v>OsDAfNhFtyX</v>
       </c>
       <c r="B73" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Postpartum contraceptive acceptors - injectable (%)</v>
+        <v>[CONFIG] RMNCAH - Death child 5-9y measles</v>
       </c>
       <c r="C73" s="5" t="str">
-        <v>Postpartum contracept injectable (%)</v>
+        <v>Death child 5-9y measles</v>
       </c>
       <c r="D73" s="5" t="str">
-        <v>RMNCAH_FPPP_INJECT</v>
+        <v>RMNCAH_DEATH_CHILD_5-9y_MSLS</v>
       </c>
       <c r="E73" s="5" t="str">
-        <v>Percentage of postpartum women delivering in facility initiating injectable as contraceptive method.</v>
+        <v>Number of child deaths 5-9 years due to measles</v>
       </c>
       <c r="F73" s="5" t="str">
-        <v>Postpartum woman initiated injectable before discharge after facility delivery</v>
+        <v>Death child 5-9y measles</v>
       </c>
       <c r="G73" s="5" t="str">
-        <v xml:space="preserve"> Delivery in facility</v>
+        <v>1</v>
       </c>
       <c r="H73" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I73" s="5" t="str">
-        <v>2019-04-28</v>
+        <v>2020-04-27</v>
       </c>
       <c r="J73" s="5" t="str">
-        <v>uDy8xg2ofrw, RRcDhY8kEtf</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="4" t="str">
-        <v>oshwEXipmih</v>
+        <v>oSfYVRt4sAn</v>
       </c>
       <c r="B74" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Postpartum contraceptive acceptors - IUD (%)</v>
+        <v>[CONFIG] RMNCAH - Death child 5-9y meningitis/encephalitis</v>
       </c>
       <c r="C74" s="4" t="str">
-        <v>Postpartum contracept IUD (%)</v>
+        <v>Death child 5-9y meningitis</v>
       </c>
       <c r="D74" s="4" t="str">
-        <v>RMNCAH_FPPP_IUD</v>
+        <v>RMNCAH_DEATH_CHILD_5-9y_MENG</v>
       </c>
       <c r="E74" s="4" t="str">
-        <v>Percentage of postpartum women delivering in facility initiating IUD as contraceptive method.</v>
+        <v>Number of child deaths 5-9 years due to meningitis/encephalitis</v>
       </c>
       <c r="F74" s="4" t="str">
-        <v>Postpartum woman initiated IUD before discharge after facility delivery</v>
+        <v>Death child 5-9y meningitis/encephalitis</v>
       </c>
       <c r="G74" s="4" t="str">
-        <v xml:space="preserve"> Delivery in facility</v>
+        <v>1</v>
       </c>
       <c r="H74" s="4" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="I74" s="4" t="str">
-        <v>2019-04-28</v>
+        <v>2020-04-27</v>
       </c>
       <c r="J74" s="4" t="str">
-        <v>uDy8xg2ofrw, RRcDhY8kEtf</v>
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="5" t="str">
-        <v>j5NrAAfsbsz</v>
+        <v>oshwEXipmih</v>
       </c>
       <c r="B75" s="5" t="str">
-        <v>[CONFIG] RMNCAH - Postpartum contraceptive acceptors - other method (%)</v>
+        <v>[CONFIG] RMNCAH - Postpartum contraceptive acceptors - IUD (%)</v>
       </c>
       <c r="C75" s="5" t="str">
-        <v>Postpartum contracept other (%)</v>
+        <v>Postpartum contracept IUD (%)</v>
       </c>
       <c r="D75" s="5" t="str">
-        <v>RMNCAH_FPPP_OTHER</v>
+        <v>RMNCAH_FPPP_IUD</v>
       </c>
       <c r="E75" s="5" t="str">
-        <v>Percentage of postpartum women delivering in facility initiating other contraceptive method</v>
+        <v>Percentage of postpartum women delivering in facility initiating IUD as contraceptive method.</v>
       </c>
       <c r="F75" s="5" t="str">
-        <v>Postpartum woman initiated other contraceptive method before discharge after facility delivery</v>
+        <v>Postpartum woman initiated IUD before discharge after facility delivery</v>
       </c>
       <c r="G75" s="5" t="str">
         <v xml:space="preserve"> Delivery in facility</v>
@@ -3693,171 +3701,1323 @@
         <v>Percentage</v>
       </c>
       <c r="I75" s="5" t="str">
-        <v>2019-04-28</v>
+        <v>2021-02-08</v>
       </c>
       <c r="J75" s="5" t="str">
-        <v>uDy8xg2ofrw, RRcDhY8kEtf</v>
+        <v>RRcDhY8kEtf, uDy8xg2ofrw</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="4" t="str">
-        <v>kQjyaO9FBtb</v>
+        <v>PBSxUYML4vn</v>
       </c>
       <c r="B76" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Postpartum contraceptive acceptors - pill (%)</v>
+        <v>[CONFIG] RMNCAH - Caesarean section rate (%)</v>
       </c>
       <c r="C76" s="4" t="str">
-        <v>Postpartum contracept pil (%)</v>
+        <v>C/S delivery rate (%)</v>
       </c>
       <c r="D76" s="4" t="str">
-        <v>RMNCAH_FPPP_PILL</v>
+        <v>RMNCAH_CSEB</v>
       </c>
       <c r="E76" s="4" t="str">
-        <v>Percentage of postpartum women delivering in facility initiating pill as contraceptive method.</v>
+        <v>Percentage of expected live births that are done by caesarean section</v>
       </c>
       <c r="F76" s="4" t="str">
-        <v>Postpartum woman initiated contraceptive pill before discharge after facility delivery</v>
+        <v>Delivery by Caesarean Section</v>
       </c>
       <c r="G76" s="4" t="str">
+        <v>Population live births</v>
+      </c>
+      <c r="H76" s="4" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I76" s="4" t="str">
+        <v>2021-02-08</v>
+      </c>
+      <c r="J76" s="4" t="str">
+        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="5" t="str">
+        <v>PEXOeNaxOz0</v>
+      </c>
+      <c r="B77" s="5" t="str">
+        <v xml:space="preserve">[CONFIG] RMNCAH - ANC client screened for syphilis </v>
+      </c>
+      <c r="C77" s="5" t="str">
+        <v xml:space="preserve">ANC client screened for syphilis </v>
+      </c>
+      <c r="D77" s="5" t="str">
+        <v/>
+      </c>
+      <c r="E77" s="5" t="str">
+        <v>Number of antenatal clients screened for syphilis</v>
+      </c>
+      <c r="F77" s="5" t="str">
+        <v>RMNCAH - Antenatal client screened for syphilis</v>
+      </c>
+      <c r="G77" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H77" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I77" s="5" t="str">
+        <v>2021-02-08</v>
+      </c>
+      <c r="J77" s="5" t="str">
+        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="4" t="str">
+        <v>PH78zjodtpG</v>
+      </c>
+      <c r="B78" s="4" t="str">
+        <v>[CONFIG] RMNCAH - Birth Live in facility with documented birthweight (%)</v>
+      </c>
+      <c r="C78" s="4" t="str">
+        <v>Live facility births documented birth-weight (%)</v>
+      </c>
+      <c r="D78" s="4" t="str">
+        <v>RMNCAH_NBDBW</v>
+      </c>
+      <c r="E78" s="4" t="str">
+        <v>Percentage of babies born in a facility with documented birthweight before discharge</v>
+      </c>
+      <c r="F78" s="4" t="str">
+        <v>Live births with documented birth weight</v>
+      </c>
+      <c r="G78" s="4" t="str">
+        <v>Live births in facility</v>
+      </c>
+      <c r="H78" s="4" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I78" s="4" t="str">
+        <v>2021-02-08</v>
+      </c>
+      <c r="J78" s="4" t="str">
+        <v>NBoBsBLsTOW, uDy8xg2ofrw, VQy2Db1ToNM</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="5" t="str">
+        <v>PPRB8AW3Pse</v>
+      </c>
+      <c r="B79" s="5" t="str">
+        <v>[CONFIG] RMNCAH - Gynaecology abortion care (%)</v>
+      </c>
+      <c r="C79" s="5" t="str">
+        <v>Gynaecology abortion care%</v>
+      </c>
+      <c r="D79" s="5" t="str">
+        <v>RMNCAH_GYN_ABORT_CARE%</v>
+      </c>
+      <c r="E79" s="5" t="str">
+        <v>Percentage of women presenting for gynecological indications related to abortion</v>
+      </c>
+      <c r="F79" s="5" t="str">
+        <v>Number of women presenting for gynecological indications related to abortion</v>
+      </c>
+      <c r="G79" s="5" t="str">
+        <v>Number of women presenting for gynecological indications</v>
+      </c>
+      <c r="H79" s="5" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I79" s="5" t="str">
+        <v>2020-04-23</v>
+      </c>
+      <c r="J79" s="5" t="str">
+        <v>RRcDhY8kEtf, uDy8xg2ofrw</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="4" t="str">
+        <v>Qgu1gY7fKiC</v>
+      </c>
+      <c r="B80" s="4" t="str">
+        <v xml:space="preserve">[CONFIG] RMNCAH - Delivery in facility </v>
+      </c>
+      <c r="C80" s="4" t="str">
+        <v xml:space="preserve">Delivery in facility </v>
+      </c>
+      <c r="D80" s="4" t="str">
+        <v>RMNCAH_DELIV_HF</v>
+      </c>
+      <c r="E80" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F80" s="4" t="str">
+        <v>Delivery in facility</v>
+      </c>
+      <c r="G80" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H80" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I80" s="4" t="str">
+        <v>2021-02-08</v>
+      </c>
+      <c r="J80" s="4" t="str">
+        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="5" t="str">
+        <v>qRfZ7sdScVv</v>
+      </c>
+      <c r="B81" s="5" t="str">
+        <v>[CONFIG] RMNCAH - Pneumonia treated with non-antibiotic medication in children 0-9 years (%)</v>
+      </c>
+      <c r="C81" s="5" t="str">
+        <v>Pneumonia treated other medication 0-9y (%)</v>
+      </c>
+      <c r="D81" s="5" t="str">
+        <v>RMNCAH_PNT_OTHER</v>
+      </c>
+      <c r="E81" s="5" t="str">
+        <v>Percentage of children correctly diagnosed with pneumonia who received treatment with other (non-antibiotic) medication</v>
+      </c>
+      <c r="F81" s="5" t="str">
+        <v>Children 0-9 years treated for pneumonia with other medication than antibiotics</v>
+      </c>
+      <c r="G81" s="5" t="str">
+        <v>Children 0-9 years diagnosed with pneumonia</v>
+      </c>
+      <c r="H81" s="5" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I81" s="5" t="str">
+        <v>2021-02-08</v>
+      </c>
+      <c r="J81" s="5" t="str">
+        <v>Qc4lDXPFGh7, uDy8xg2ofrw</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="4" t="str">
+        <v>roSz8mCKvXo</v>
+      </c>
+      <c r="B82" s="4" t="str">
+        <v>[CONFIG] RMNCAH - Death neonatal intrapartum related events</v>
+      </c>
+      <c r="C82" s="4" t="str">
+        <v>Death neonatal intrapartum related events</v>
+      </c>
+      <c r="D82" s="4" t="str">
+        <v>RMNCAH_DEATH_NEO_INTRA</v>
+      </c>
+      <c r="E82" s="4" t="str">
+        <v>Number of Neonatal deaths due to intrapartum related events</v>
+      </c>
+      <c r="F82" s="4" t="str">
+        <v>Death neonatal intrapartum related events</v>
+      </c>
+      <c r="G82" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H82" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I82" s="4" t="str">
+        <v>2021-02-08</v>
+      </c>
+      <c r="J82" s="4" t="str">
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="5" t="str">
+        <v>rpSllz1AKMa</v>
+      </c>
+      <c r="B83" s="5" t="str">
+        <v>[CONFIG] RMNCAH - Deaths maternal total in HMIS</v>
+      </c>
+      <c r="C83" s="5" t="str">
+        <v>Deaths maternal HMIS</v>
+      </c>
+      <c r="D83" s="5" t="str">
+        <v>RMNCAH_MD_HMIS</v>
+      </c>
+      <c r="E83" s="5" t="str">
+        <v>Number of maternal deaths reported in the HMIS</v>
+      </c>
+      <c r="F83" s="5" t="str">
+        <v>Death maternal</v>
+      </c>
+      <c r="G83" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H83" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I83" s="5" t="str">
+        <v>2020-04-23</v>
+      </c>
+      <c r="J83" s="5" t="str">
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="4" t="str">
+        <v>S3oGwzm9RqX</v>
+      </c>
+      <c r="B84" s="4" t="str">
+        <v>[CONFIG] RMNCAH - ANC clients with blood pressure measured in third (3rd) trimester (%)</v>
+      </c>
+      <c r="C84" s="4" t="str">
+        <v>ANC BP measured in 3rd trimester (%)</v>
+      </c>
+      <c r="D84" s="4" t="str">
+        <v>RMNCAH_ANC_BP_3TRI</v>
+      </c>
+      <c r="E84" s="4" t="str">
+        <v>Percentage of antenatal clients with blood pressure measured in third (3rd) trimester.</v>
+      </c>
+      <c r="F84" s="4" t="str">
+        <v>ANC clients with blood pressure measured in third (3rd) trimester</v>
+      </c>
+      <c r="G84" s="4" t="str">
+        <v>ANC 1st visit</v>
+      </c>
+      <c r="H84" s="4" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I84" s="4" t="str">
+        <v>2020-04-08</v>
+      </c>
+      <c r="J84" s="4" t="str">
+        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="5" t="str">
+        <v>S6Sz0UU3mPG</v>
+      </c>
+      <c r="B85" s="5" t="str">
+        <v>[CONFIG] RMNCAH - Newborns resuscitated with bag and mask (%)</v>
+      </c>
+      <c r="C85" s="5" t="str">
+        <v>Newborns resuscitated bag and mask (%)</v>
+      </c>
+      <c r="D85" s="5" t="str">
+        <v>RMNCAH_NN_RESUS_BM</v>
+      </c>
+      <c r="E85" s="5" t="str">
+        <v>Percentage of newborns resuscitated with bag and mask</v>
+      </c>
+      <c r="F85" s="5" t="str">
+        <v>Number of newborns resuscitated with bag and mask</v>
+      </c>
+      <c r="G85" s="5" t="str">
+        <v>Number of live births in facility</v>
+      </c>
+      <c r="H85" s="5" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I85" s="5" t="str">
+        <v>2020-04-08</v>
+      </c>
+      <c r="J85" s="5" t="str">
+        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="4" t="str">
+        <v>SPKKzLb5389</v>
+      </c>
+      <c r="B86" s="4" t="str">
+        <v>[CONFIG] RMNCAH - Cervical cancer screening coverage women 15-49y (%)</v>
+      </c>
+      <c r="C86" s="4" t="str">
+        <v>Cervical cancer screening coverage women 15-49y(%)</v>
+      </c>
+      <c r="D86" s="4" t="str">
+        <v>RMNCAH_SCRN_CERV_CNCR_COV</v>
+      </c>
+      <c r="E86" s="4" t="str">
+        <v>Percentage of women of reproductive age (15 to 49 years) who were screened for cervical cancer using any of the following methods: visual Inspection with acetic acid/vinegar (VIA), pap smear, human papilloma virus (HPV) test.</v>
+      </c>
+      <c r="F86" s="4" t="str">
+        <v>Women 15-49y screened for cervical cancer</v>
+      </c>
+      <c r="G86" s="4" t="str">
+        <v>Women of reproductive age (15-49y)</v>
+      </c>
+      <c r="H86" s="4" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I86" s="4" t="str">
+        <v>2020-04-08</v>
+      </c>
+      <c r="J86" s="4" t="str">
+        <v>RRcDhY8kEtf, uDy8xg2ofrw</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="5" t="str">
+        <v>t3eSNlyXlSt</v>
+      </c>
+      <c r="B87" s="5" t="str">
+        <v xml:space="preserve">[CONFIG] RMNCAH - Death neonatal congenital </v>
+      </c>
+      <c r="C87" s="5" t="str">
+        <v xml:space="preserve">Death neonatal congenital </v>
+      </c>
+      <c r="D87" s="5" t="str">
+        <v>RMNCAH_NDCA</v>
+      </c>
+      <c r="E87" s="5" t="str">
+        <v>Number of Neonatal deaths due to congenital malformations</v>
+      </c>
+      <c r="F87" s="5" t="str">
+        <v>Death neonatal congenital</v>
+      </c>
+      <c r="G87" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H87" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I87" s="5" t="str">
+        <v>2021-02-08</v>
+      </c>
+      <c r="J87" s="5" t="str">
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="4" t="str">
+        <v>t63W8x8sDvq</v>
+      </c>
+      <c r="B88" s="4" t="str">
+        <v>[CONFIG] RMNCAH - Death child 5-9y other infections</v>
+      </c>
+      <c r="C88" s="4" t="str">
+        <v>Death child 5-9y other infections</v>
+      </c>
+      <c r="D88" s="4" t="str">
+        <v>RMNCAH_DEATH_CHILD_5-9y_OTH_INF</v>
+      </c>
+      <c r="E88" s="4" t="str">
+        <v>Number of child deaths 5-9 years due to other infections</v>
+      </c>
+      <c r="F88" s="4" t="str">
+        <v>Death child 5-9y other infections</v>
+      </c>
+      <c r="G88" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H88" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I88" s="4" t="str">
+        <v>2021-02-08</v>
+      </c>
+      <c r="J88" s="4" t="str">
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="5" t="str">
+        <v>ThhTw7jEPsC</v>
+      </c>
+      <c r="B89" s="5" t="str">
+        <v>[CONFIG] RMNCAH - Death child 0-4y tetanus</v>
+      </c>
+      <c r="C89" s="5" t="str">
+        <v>Death child 0-4y tetanus</v>
+      </c>
+      <c r="D89" s="5" t="str">
+        <v>RMNCAH_DEATH_CHILD_0-4y_TT</v>
+      </c>
+      <c r="E89" s="5" t="str">
+        <v>Number of child deaths 0-4 years due to tetanus</v>
+      </c>
+      <c r="F89" s="5" t="str">
+        <v>Death child 0-4y tetanus</v>
+      </c>
+      <c r="G89" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H89" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I89" s="5" t="str">
+        <v>2021-02-08</v>
+      </c>
+      <c r="J89" s="5" t="str">
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="4" t="str">
+        <v>tkL7UlM3HGM</v>
+      </c>
+      <c r="B90" s="4" t="str">
+        <v>[CONFIG] RMNCAH - ANC client syphilis screening (%)</v>
+      </c>
+      <c r="C90" s="4" t="str">
+        <v>ANC syphilis screening (%)</v>
+      </c>
+      <c r="D90" s="4" t="str">
+        <v>RMNCAH_ANCSS</v>
+      </c>
+      <c r="E90" s="4" t="str">
+        <v>Percentage of antenatal clients screened for syphilis</v>
+      </c>
+      <c r="F90" s="4" t="str">
+        <v>ANC clients screened for syphilis</v>
+      </c>
+      <c r="G90" s="4" t="str">
+        <v>ANC 1st visit</v>
+      </c>
+      <c r="H90" s="4" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I90" s="4" t="str">
+        <v>2021-02-08</v>
+      </c>
+      <c r="J90" s="4" t="str">
+        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="5" t="str">
+        <v>U1Y5H3ruLPD</v>
+      </c>
+      <c r="B91" s="5" t="str">
+        <v>[CONFIG] RMNCAH - Death child 0-4y prematurity</v>
+      </c>
+      <c r="C91" s="5" t="str">
+        <v>Death child 0-4y prematurity</v>
+      </c>
+      <c r="D91" s="5" t="str">
+        <v>RMNCAH_DEATH_CHILD_0-4y_PRM</v>
+      </c>
+      <c r="E91" s="5" t="str">
+        <v>Number of child deaths 0-4 years due to prematurity</v>
+      </c>
+      <c r="F91" s="5" t="str">
+        <v>Death child 0-4y prematurity</v>
+      </c>
+      <c r="G91" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H91" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I91" s="5" t="str">
+        <v>2021-02-08</v>
+      </c>
+      <c r="J91" s="5" t="str">
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="4" t="str">
+        <v>u4MVw6vtaVq</v>
+      </c>
+      <c r="B92" s="4" t="str">
+        <v>[CONFIG] RMNCAH - ANC 8th visit coverage (%)</v>
+      </c>
+      <c r="C92" s="4" t="str">
+        <v>ANC 8th visit coverage (%)</v>
+      </c>
+      <c r="D92" s="4" t="str">
+        <v>RMNCAH_ANC8_COV</v>
+      </c>
+      <c r="E92" s="4" t="str">
+        <v>Percentage of expected pregnant women who had 8 ANC visits.</v>
+      </c>
+      <c r="F92" s="4" t="str">
+        <v>ANC 8th visit</v>
+      </c>
+      <c r="G92" s="4" t="str">
+        <v>Expected pregnancies (pop data)</v>
+      </c>
+      <c r="H92" s="4" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I92" s="4" t="str">
+        <v>2021-02-08</v>
+      </c>
+      <c r="J92" s="4" t="str">
+        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="5" t="str">
+        <v>uHg0RQeJNpw</v>
+      </c>
+      <c r="B93" s="5" t="str">
+        <v>[CONFIG] RMNCAH - ANC TT2 (tetanus) coverage (%)</v>
+      </c>
+      <c r="C93" s="5" t="str">
+        <v>ANC TT2 coverage (%)</v>
+      </c>
+      <c r="D93" s="5" t="str">
+        <v>RMNCAH_TT2_COV</v>
+      </c>
+      <c r="E93" s="5" t="str">
+        <v>Percentage of antenatal clients who received at least 2 Tetanus Toxoid doses</v>
+      </c>
+      <c r="F93" s="5" t="str">
+        <v>TT2 doses given to pregnant women</v>
+      </c>
+      <c r="G93" s="5" t="str">
+        <v>Expected pregnancies (pop data)</v>
+      </c>
+      <c r="H93" s="5" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I93" s="5" t="str">
+        <v>2021-02-08</v>
+      </c>
+      <c r="J93" s="5" t="str">
+        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="4" t="str">
+        <v>UX5BdEApNEI</v>
+      </c>
+      <c r="B94" s="4" t="str">
+        <v>[CONFIG] RMNCAH - Diarrhoea treatment in children 0-9 years (%)</v>
+      </c>
+      <c r="C94" s="4" t="str">
+        <v>Diarrhoea treatment 0-9y (%)</v>
+      </c>
+      <c r="D94" s="4" t="str">
+        <v>RMNCAH_DT</v>
+      </c>
+      <c r="E94" s="4" t="str">
+        <v>Percentage of children diagnosed with diarrhoea who received treatment.</v>
+      </c>
+      <c r="F94" s="4" t="str">
+        <v>Children 0-9 years treated for diarrhoea</v>
+      </c>
+      <c r="G94" s="4" t="str">
+        <v>Children 0-9 years diagnosed with diarrhoea</v>
+      </c>
+      <c r="H94" s="4" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I94" s="4" t="str">
+        <v>2021-02-08</v>
+      </c>
+      <c r="J94" s="4" t="str">
+        <v>Qc4lDXPFGh7, uDy8xg2ofrw</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="5" t="str">
+        <v>VFZAVTULTSd</v>
+      </c>
+      <c r="B95" s="5" t="str">
+        <v>[CONFIG] RMNCAH - Pneumonia treated with Amoxicillin in children 0-9 years (%)</v>
+      </c>
+      <c r="C95" s="5" t="str">
+        <v>Pneumonia treated with Amoxicillin 0-9y (%)</v>
+      </c>
+      <c r="D95" s="5" t="str">
+        <v>RMNCAH_PNT_AMOX</v>
+      </c>
+      <c r="E95" s="5" t="str">
+        <v>Percentage of children correctly diagnosed with pneumonia who received treatment with Amoxicillin (either dispersed tablet or oral syrup)</v>
+      </c>
+      <c r="F95" s="5" t="str">
+        <v>Children 0-9 years treated for pneumonia with amoxicillin dispersed tablet or oral syrup</v>
+      </c>
+      <c r="G95" s="5" t="str">
+        <v>Children 0-9 years diagnosed with pneumonia</v>
+      </c>
+      <c r="H95" s="5" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I95" s="5" t="str">
+        <v>2020-04-07</v>
+      </c>
+      <c r="J95" s="5" t="str">
+        <v>Qc4lDXPFGh7, uDy8xg2ofrw</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="4" t="str">
+        <v>Vgr5AiRKANz</v>
+      </c>
+      <c r="B96" s="4" t="str">
+        <v xml:space="preserve">[CONFIG] RMNCAH - ANC 4th visit </v>
+      </c>
+      <c r="C96" s="4" t="str">
+        <v xml:space="preserve">ANC 4th visit </v>
+      </c>
+      <c r="D96" s="4" t="str">
+        <v>RMNCAH_ANC_4TH</v>
+      </c>
+      <c r="E96" s="4" t="str">
+        <v/>
+      </c>
+      <c r="F96" s="4" t="str">
+        <v>ANC 4th visit</v>
+      </c>
+      <c r="G96" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H96" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I96" s="4" t="str">
+        <v>2021-02-08</v>
+      </c>
+      <c r="J96" s="4" t="str">
+        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="5" t="str">
+        <v>vhqt3xIZ5Ut</v>
+      </c>
+      <c r="B97" s="5" t="str">
+        <v>[CONFIG] RMNCAH - Death child 0-4y all causes</v>
+      </c>
+      <c r="C97" s="5" t="str">
+        <v>Death child 0-4y all causes</v>
+      </c>
+      <c r="D97" s="5" t="str">
+        <v>RMNCAH_DEATH_CHILD_0-4y_ALL</v>
+      </c>
+      <c r="E97" s="5" t="str">
+        <v>Number of child deaths 0-4 years due to all causes</v>
+      </c>
+      <c r="F97" s="5" t="str">
+        <v>Death child 0-4y all causes</v>
+      </c>
+      <c r="G97" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H97" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I97" s="5" t="str">
+        <v>2020-04-27</v>
+      </c>
+      <c r="J97" s="5" t="str">
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="4" t="str">
+        <v>wbAmtpfMvJ8</v>
+      </c>
+      <c r="B98" s="4" t="str">
+        <v>[CONFIG] RMNCAH - Postpartum contraceptive acceptors - condom (%)</v>
+      </c>
+      <c r="C98" s="4" t="str">
+        <v>Postpartum contracept condom (%)</v>
+      </c>
+      <c r="D98" s="4" t="str">
+        <v>RMNCAH_FPPP_CON</v>
+      </c>
+      <c r="E98" s="4" t="str">
+        <v>Percentage of postpartum women delivering in facility initiating condom as contraceptive method.</v>
+      </c>
+      <c r="F98" s="4" t="str">
+        <v>Postpartum woman initiated Condom before discharge after facility delivery</v>
+      </c>
+      <c r="G98" s="4" t="str">
         <v xml:space="preserve"> Delivery in facility</v>
       </c>
-      <c r="H76" s="4" t="str">
-        <v>Percentage</v>
-      </c>
-      <c r="I76" s="4" t="str">
-        <v>2019-04-28</v>
-      </c>
-      <c r="J76" s="4" t="str">
-        <v>uDy8xg2ofrw, RRcDhY8kEtf</v>
-      </c>
-    </row>
-    <row r="77" xml:space="preserve">
-      <c r="A77" s="5" t="str">
+      <c r="H98" s="4" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I98" s="4" t="str">
+        <v>2021-02-08</v>
+      </c>
+      <c r="J98" s="4" t="str">
+        <v>RRcDhY8kEtf, uDy8xg2ofrw</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="5" t="str">
+        <v>Whob66sPjEE</v>
+      </c>
+      <c r="B99" s="5" t="str">
+        <v>[CONFIG] RMNCAH - Death child 0-4y congenital anomalies</v>
+      </c>
+      <c r="C99" s="5" t="str">
+        <v>Death child 0-4y congenital anomalies</v>
+      </c>
+      <c r="D99" s="5" t="str">
+        <v>RMNCAH_DEATH_CHILD_0-4y_CONG</v>
+      </c>
+      <c r="E99" s="5" t="str">
+        <v>Number of child deaths 0-4 years due to congenital anomalies</v>
+      </c>
+      <c r="F99" s="5" t="str">
+        <v>Death child 0-4y congenital anomalies</v>
+      </c>
+      <c r="G99" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H99" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I99" s="5" t="str">
+        <v>2021-02-08</v>
+      </c>
+      <c r="J99" s="5" t="str">
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="4" t="str">
+        <v>wwtcF9fypyQ</v>
+      </c>
+      <c r="B100" s="4" t="str">
+        <v>[CONFIG] RMNCAH - Pneumonia number diagnosed in children 0-4 years</v>
+      </c>
+      <c r="C100" s="4" t="str">
+        <v>Pneumonia diagnosis 0-4y</v>
+      </c>
+      <c r="D100" s="4" t="str">
+        <v>RMNCAH_PND_0-4</v>
+      </c>
+      <c r="E100" s="4" t="str">
+        <v>Number of children aged 0-4 years correctly diagnosed with pneumonia.</v>
+      </c>
+      <c r="F100" s="4" t="str">
+        <v>Children diagnosed with pneumonia 0-4 years</v>
+      </c>
+      <c r="G100" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H100" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I100" s="4" t="str">
+        <v>2020-04-13</v>
+      </c>
+      <c r="J100" s="4" t="str">
+        <v>uDy8xg2ofrw</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="5" t="str">
+        <v>X1gqmqv6gvT</v>
+      </c>
+      <c r="B101" s="5" t="str">
+        <v>[CONFIG] RMNCAH - Pneumonia diagnosis in children 0-9 years with ARI (%)</v>
+      </c>
+      <c r="C101" s="5" t="str">
+        <v>Pneumonia diagnosis 0-9y (%)</v>
+      </c>
+      <c r="D101" s="5" t="str">
+        <v>RMNCAH_PND_ARI</v>
+      </c>
+      <c r="E101" s="5" t="str">
+        <v>Percentage of children with symptoms of acute respiratory illness (ARI) correctly diagnosed with pneumonia.</v>
+      </c>
+      <c r="F101" s="5" t="str">
+        <v>Children 0-9 years diagnosed with pneumonia</v>
+      </c>
+      <c r="G101" s="5" t="str">
+        <v>Children 0-9 years with symptoms of acute respiratory illness (ARI)</v>
+      </c>
+      <c r="H101" s="5" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I101" s="5" t="str">
+        <v>2020-04-07</v>
+      </c>
+      <c r="J101" s="5" t="str">
+        <v>uDy8xg2ofrw</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="4" t="str">
+        <v>xGXryTKcNY2</v>
+      </c>
+      <c r="B102" s="4" t="str">
+        <v>[CONFIG] RMNCAH - HIV PMTCT testing coverage rate - Known HIV+ at ANC entry (%)</v>
+      </c>
+      <c r="C102" s="4" t="str">
+        <v>PMTCT testing coverage - known HIV+ (%)</v>
+      </c>
+      <c r="D102" s="4" t="str">
+        <v>RMNCAH_PMTCT_TEST_COV_KNWN_HIV+</v>
+      </c>
+      <c r="E102" s="4" t="str">
+        <v>Percentage of antenatal clients with known HIV+ status at ANC entry</v>
+      </c>
+      <c r="F102" s="4" t="str">
+        <v>ANC clients with known HIV+ status</v>
+      </c>
+      <c r="G102" s="4" t="str">
+        <v>ANC 1st visit</v>
+      </c>
+      <c r="H102" s="4" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I102" s="4" t="str">
+        <v>2020-04-23</v>
+      </c>
+      <c r="J102" s="4" t="str">
+        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="5" t="str">
+        <v>Xn5C1TDrCkr</v>
+      </c>
+      <c r="B103" s="5" t="str">
+        <v>[CONFIG] RMNCAH - ANC clients with blood pressure measured (%)</v>
+      </c>
+      <c r="C103" s="5" t="str">
+        <v>ANC BP measured (%)</v>
+      </c>
+      <c r="D103" s="5" t="str">
+        <v>RMNCAH_ANC_BP</v>
+      </c>
+      <c r="E103" s="5" t="str">
+        <v>Percentage of antenatal clients with blood pressure measured.</v>
+      </c>
+      <c r="F103" s="5" t="str">
+        <v>ANC clients with blood pressure measured</v>
+      </c>
+      <c r="G103" s="5" t="str">
+        <v>ANC 1st visit</v>
+      </c>
+      <c r="H103" s="5" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I103" s="5" t="str">
+        <v>2020-04-08</v>
+      </c>
+      <c r="J103" s="5" t="str">
+        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="4" t="str">
+        <v>XoEBUcTy62Q</v>
+      </c>
+      <c r="B104" s="4" t="str">
+        <v>[CONFIG] RMNCAH - Gynaecology abortion care</v>
+      </c>
+      <c r="C104" s="4" t="str">
+        <v>Gynaecology abortion care</v>
+      </c>
+      <c r="D104" s="4" t="str">
+        <v>RMNCAH_GYN_ABORT_CARE</v>
+      </c>
+      <c r="E104" s="4" t="str">
+        <v>Number of women presenting for gynecological indications related to abortion</v>
+      </c>
+      <c r="F104" s="4" t="str">
+        <v>Number of women presenting for gynecological indications related to abortion</v>
+      </c>
+      <c r="G104" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H104" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I104" s="4" t="str">
+        <v>2020-04-23</v>
+      </c>
+      <c r="J104" s="4" t="str">
+        <v>RRcDhY8kEtf, uDy8xg2ofrw</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="5" t="str">
+        <v>XXDXVGzvSx1</v>
+      </c>
+      <c r="B105" s="5" t="str">
+        <v>[CONFIG] RMNCAH - Assisted delivery rate in institutional deliveries (%)</v>
+      </c>
+      <c r="C105" s="5" t="str">
+        <v>Assisted institutional delivery rate (%)</v>
+      </c>
+      <c r="D105" s="5" t="str">
+        <v>RMNCAH_AD</v>
+      </c>
+      <c r="E105" s="5" t="str">
+        <v>Percentage of deliveries in health facilities that are assisted (forceps or vacuum)</v>
+      </c>
+      <c r="F105" s="5" t="str">
+        <v>Delivery in facility - Assisted (Vacuum or forceps)</v>
+      </c>
+      <c r="G105" s="5" t="str">
+        <v>Delivery in facility</v>
+      </c>
+      <c r="H105" s="5" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I105" s="5" t="str">
+        <v>2021-02-08</v>
+      </c>
+      <c r="J105" s="5" t="str">
+        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="4" t="str">
+        <v>y8YZCvBmBK3</v>
+      </c>
+      <c r="B106" s="4" t="str">
+        <v>[CONFIG] RMNCAH - Newborns on kangaroo mother care (KMC) (%)</v>
+      </c>
+      <c r="C106" s="4" t="str">
+        <v>Newborns KMC (%)</v>
+      </c>
+      <c r="D106" s="4" t="str">
+        <v>RMNCAH_NN_KMC</v>
+      </c>
+      <c r="E106" s="4" t="str">
+        <v>Percentage of newborns initiated in KMC (or admitted to KMC unit if separate unit exists)</v>
+      </c>
+      <c r="F106" s="4" t="str">
+        <v>Number of newborns on Kangaroo mother care</v>
+      </c>
+      <c r="G106" s="4" t="str">
+        <v>Number of live births in facility</v>
+      </c>
+      <c r="H106" s="4" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I106" s="4" t="str">
+        <v>2020-04-08</v>
+      </c>
+      <c r="J106" s="4" t="str">
+        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
+      </c>
+    </row>
+    <row r="107" xml:space="preserve">
+      <c r="A107" s="5" t="str">
         <v>YBjvDwAKAgZ</v>
       </c>
-      <c r="B77" s="5" t="str">
+      <c r="B107" s="5" t="str">
         <v>[CONFIG] RMNCAH - Postpartum family planning acceptors (%)</v>
       </c>
-      <c r="C77" s="5" t="str">
+      <c r="C107" s="5" t="str">
         <v>Postpartum FP acceptors</v>
       </c>
-      <c r="D77" s="5" t="str">
+      <c r="D107" s="5" t="str">
         <v>RMNCAH_FPPP</v>
       </c>
-      <c r="E77" s="5" t="str" xml:space="preserve">
+      <c r="E107" s="5" t="str" xml:space="preserve">
         <v xml:space="preserve">Percentage of postpartum women delivering in facility initiating a contraceptive method before discharge. 
 “Initiated" refers to women who either leave with an FP method or intend to begin a method that day (e.g. fertility awareness method). It combines both those women who “leave with” a method and those who “accept” a method prior to discharge or leaving the facility.</v>
       </c>
-      <c r="F77" s="5" t="str">
+      <c r="F107" s="5" t="str">
         <v>Postpartum woman initiated contraceptive method before discharge</v>
       </c>
-      <c r="G77" s="5" t="str">
+      <c r="G107" s="5" t="str">
         <v xml:space="preserve"> Delivery in facility</v>
       </c>
-      <c r="H77" s="5" t="str">
-        <v>Percentage</v>
-      </c>
-      <c r="I77" s="5" t="str">
-        <v>2019-04-28</v>
-      </c>
-      <c r="J77" s="5" t="str">
-        <v>uDy8xg2ofrw</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="4" t="str">
+      <c r="H107" s="5" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I107" s="5" t="str">
+        <v>2021-02-08</v>
+      </c>
+      <c r="J107" s="5" t="str">
+        <v>RRcDhY8kEtf, uDy8xg2ofrw</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="4" t="str">
         <v>ylXbHIzTg7x</v>
       </c>
-      <c r="B78" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Stillbirth rate in facility (%)</v>
-      </c>
-      <c r="C78" s="4" t="str">
+      <c r="B108" s="4" t="str">
+        <v>[CONFIG] RMNCAH - Birth still rate in facility (%)</v>
+      </c>
+      <c r="C108" s="4" t="str">
         <v>Still birth rate (%)</v>
       </c>
-      <c r="D78" s="4" t="str">
+      <c r="D108" s="4" t="str">
         <v>RMNCAH_SB</v>
       </c>
-      <c r="E78" s="4" t="str">
+      <c r="E108" s="4" t="str">
         <v>Stillbirth as a percentage of all births in health facilities. (Baby born with no sign of life and weighing at least 1000g or after 28 weeks gestation)</v>
       </c>
-      <c r="F78" s="4" t="str">
+      <c r="F108" s="4" t="str">
         <v>Still births in facility</v>
       </c>
-      <c r="G78" s="4" t="str">
+      <c r="G108" s="4" t="str">
         <v>Live and still births in facility</v>
       </c>
-      <c r="H78" s="4" t="str">
-        <v>Percentage</v>
-      </c>
-      <c r="I78" s="4" t="str">
-        <v>2019-04-28</v>
-      </c>
-      <c r="J78" s="4" t="str">
+      <c r="H108" s="4" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I108" s="4" t="str">
+        <v>2021-02-08</v>
+      </c>
+      <c r="J108" s="4" t="str">
         <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="5" t="str">
-        <v>uHg0RQeJNpw</v>
-      </c>
-      <c r="B79" s="5" t="str">
-        <v>[CONFIG] RMNCAH - TT2 coverage for pregnant women (%)</v>
-      </c>
-      <c r="C79" s="5" t="str">
-        <v>CHW TT2 coverage (%)</v>
-      </c>
-      <c r="D79" s="5" t="str">
-        <v>RMNCAH_TT2_COV</v>
-      </c>
-      <c r="E79" s="5" t="str">
-        <v>Percentage of antenatal clients who received at least 2 Tetanus Toxoid doses</v>
-      </c>
-      <c r="F79" s="5" t="str">
-        <v>TT2 doses given to pregnant women</v>
-      </c>
-      <c r="G79" s="5" t="str">
-        <v>Expected pregnancies (pop data)</v>
-      </c>
-      <c r="H79" s="5" t="str">
-        <v>Percentage</v>
-      </c>
-      <c r="I79" s="5" t="str">
-        <v>2019-04-28</v>
-      </c>
-      <c r="J79" s="5" t="str">
+    <row r="109">
+      <c r="A109" s="5" t="str">
+        <v>YQF5aH1USqa</v>
+      </c>
+      <c r="B109" s="5" t="str">
+        <v>[CONFIG] RMNCAH - Death neonatal tetanus</v>
+      </c>
+      <c r="C109" s="5" t="str">
+        <v>Death neonatal tetanus</v>
+      </c>
+      <c r="D109" s="5" t="str">
+        <v>RMNCAH_DEATH_NEO_TT</v>
+      </c>
+      <c r="E109" s="5" t="str">
+        <v>Number of Neonatal deaths due to tetanus</v>
+      </c>
+      <c r="F109" s="5" t="str">
+        <v>Death neonatal tetanus</v>
+      </c>
+      <c r="G109" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H109" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I109" s="5" t="str">
+        <v>2021-02-08</v>
+      </c>
+      <c r="J109" s="5" t="str">
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="4" t="str">
+        <v>Z2Df1NeNaEj</v>
+      </c>
+      <c r="B110" s="4" t="str">
+        <v>[CONFIG] RMNCAH - Diarrhoea treated with ORS and zinc in children 0-9 years (%)</v>
+      </c>
+      <c r="C110" s="4" t="str">
+        <v>Diarrhoea treated ORS+Zinc 0-9y (%)</v>
+      </c>
+      <c r="D110" s="4" t="str">
+        <v>RMNCAH_DT_ORSZINC</v>
+      </c>
+      <c r="E110" s="4" t="str">
+        <v>Percentage of children diagnosed with diarrhoea who received treatment with ORS and Zinc.</v>
+      </c>
+      <c r="F110" s="4" t="str">
+        <v>Children 0-9 years treated for diarrhoea with ORS</v>
+      </c>
+      <c r="G110" s="4" t="str">
+        <v>Children 0-9 years diagnosed with diarrhoea</v>
+      </c>
+      <c r="H110" s="4" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I110" s="4" t="str">
+        <v>2021-02-08</v>
+      </c>
+      <c r="J110" s="4" t="str">
+        <v>Qc4lDXPFGh7, uDy8xg2ofrw</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="5" t="str">
+        <v>ZbMLAo7LTuz</v>
+      </c>
+      <c r="B111" s="5" t="str">
+        <v>[CONFIG] RMNCAH - Death child 5-9y non communicable diseases (NCDs)</v>
+      </c>
+      <c r="C111" s="5" t="str">
+        <v>Death child 5-9y NCD</v>
+      </c>
+      <c r="D111" s="5" t="str">
+        <v>RMNCAH_DEATH_CHILD_5-9y_NCD</v>
+      </c>
+      <c r="E111" s="5" t="str">
+        <v>Number of child deaths 5-9 years due to non communicable diseases (NCDs)</v>
+      </c>
+      <c r="F111" s="5" t="str">
+        <v>Death child 5-9y non-communicable diseases (NCD)</v>
+      </c>
+      <c r="G111" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H111" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I111" s="5" t="str">
+        <v>2020-04-27</v>
+      </c>
+      <c r="J111" s="5" t="str">
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="4" t="str">
+        <v>zJnHulDK3si</v>
+      </c>
+      <c r="B112" s="4" t="str">
+        <v>[CONFIG] RMNCAH - Death neonatal sepsis or meningitis</v>
+      </c>
+      <c r="C112" s="4" t="str">
+        <v>Death neonatal sepsis or meningitis</v>
+      </c>
+      <c r="D112" s="4" t="str">
+        <v>RMNCAH_DEATH_NEO_SEPSS</v>
+      </c>
+      <c r="E112" s="4" t="str">
+        <v>Number of Neonatal deaths due to sepsis or meningitis</v>
+      </c>
+      <c r="F112" s="4" t="str">
+        <v>Death neonatal sepsis or meningitis</v>
+      </c>
+      <c r="G112" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H112" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I112" s="4" t="str">
+        <v>2021-02-08</v>
+      </c>
+      <c r="J112" s="4" t="str">
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="5" t="str">
+        <v>zlR4t4qRTZR</v>
+      </c>
+      <c r="B113" s="5" t="str">
+        <v>[CONFIG] RMNCAH - Death child 0-4y pneumonia</v>
+      </c>
+      <c r="C113" s="5" t="str">
+        <v>Child death 0-4y pneumonia</v>
+      </c>
+      <c r="D113" s="5" t="str">
+        <v>RMNCAH_DEATH_CHILD_0-4y_PNEU</v>
+      </c>
+      <c r="E113" s="5" t="str">
+        <v>Number of child deaths 0-4 years due to pneumonia</v>
+      </c>
+      <c r="F113" s="5" t="str">
+        <v>Death child 0-4y pneumonia</v>
+      </c>
+      <c r="G113" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H113" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I113" s="5" t="str">
+        <v>2021-02-08</v>
+      </c>
+      <c r="J113" s="5" t="str">
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="4" t="str">
+        <v>ZNz5XzwJZK5</v>
+      </c>
+      <c r="B114" s="4" t="str">
+        <v>[CONFIG] RMNCAH - IPTp1 coverage (%)</v>
+      </c>
+      <c r="C114" s="4" t="str">
+        <v>IPTp1 coverage (%)</v>
+      </c>
+      <c r="D114" s="4" t="str">
+        <v>RMNCAH_IPTP1_COV</v>
+      </c>
+      <c r="E114" s="4" t="str">
+        <v>Percentage of expected pregnant women who received the first dose of IPTp: Intermittent preventive therapy for malaria during pregnancy</v>
+      </c>
+      <c r="F114" s="4" t="str">
+        <v>IPTp 1st dose</v>
+      </c>
+      <c r="G114" s="4" t="str">
+        <v>Expected pregnancies (pop data) in areas with risk of malaria</v>
+      </c>
+      <c r="H114" s="4" t="str">
+        <v>Percentage</v>
+      </c>
+      <c r="I114" s="4" t="str">
+        <v>2021-02-08</v>
+      </c>
+      <c r="J114" s="4" t="str">
         <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="4" t="str">
-        <v>b4e4QZfBe5x</v>
-      </c>
-      <c r="B80" s="4" t="str">
-        <v>[CONFIG] RMNCAH - Uterotonic for prevention of post-partum haemorrhage (%)</v>
-      </c>
-      <c r="C80" s="4" t="str">
-        <v>Uterotonic for PPH (%)</v>
-      </c>
-      <c r="D80" s="4" t="str">
-        <v>RMNCAH_UPPH</v>
-      </c>
-      <c r="E80" s="4" t="str">
-        <v>Percentage of women who gave birth in a facility who received a prophylactic uterotonic immediately after birth for prevention of postpartum hemorrhage. "Immediately" ideally refers to within one minute.</v>
-      </c>
-      <c r="F80" s="4" t="str">
-        <v>Received a prophylactic uterotonic immediately after birth</v>
-      </c>
-      <c r="G80" s="4" t="str">
-        <v>Delivery in facility</v>
-      </c>
-      <c r="H80" s="4" t="str">
-        <v>Percentage</v>
-      </c>
-      <c r="I80" s="4" t="str">
-        <v>2019-04-28</v>
-      </c>
-      <c r="J80" s="4" t="str">
-        <v>uDy8xg2ofrw, VQy2Db1ToNM</v>
+    <row r="115">
+      <c r="A115" s="5" t="str">
+        <v>Zr4GSWRPQaM</v>
+      </c>
+      <c r="B115" s="5" t="str">
+        <v>[CONFIG] RMNCAH - Death neonatal unclassified</v>
+      </c>
+      <c r="C115" s="5" t="str">
+        <v>Death neonatal unclassified</v>
+      </c>
+      <c r="D115" s="5" t="str">
+        <v>RMNCAH_DEATH_NEO_UNCLASS</v>
+      </c>
+      <c r="E115" s="5" t="str">
+        <v>Number of Neonatal deaths unclassified</v>
+      </c>
+      <c r="F115" s="5" t="str">
+        <v>Death neonatal unclassified</v>
+      </c>
+      <c r="G115" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="H115" s="5" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I115" s="5" t="str">
+        <v>2021-02-08</v>
+      </c>
+      <c r="J115" s="5" t="str">
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="4" t="str">
+        <v>zXhn9sH8oXD</v>
+      </c>
+      <c r="B116" s="4" t="str">
+        <v>[CONFIG] RMNCAH - Death child 0-4y non communicable diseases (NCDs)</v>
+      </c>
+      <c r="C116" s="4" t="str">
+        <v>Death child 0-4y NCD</v>
+      </c>
+      <c r="D116" s="4" t="str">
+        <v>RMNCAH_DEATH_CHILD_0-4y_NCD</v>
+      </c>
+      <c r="E116" s="4" t="str">
+        <v>Number of child deaths 0-4years due to non communicable diseases (NCDs)</v>
+      </c>
+      <c r="F116" s="4" t="str">
+        <v>Death child 0-4y non communicable diseases</v>
+      </c>
+      <c r="G116" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H116" s="4" t="str">
+        <v>Numerator only (number)</v>
+      </c>
+      <c r="I116" s="4" t="str">
+        <v>2021-02-08</v>
+      </c>
+      <c r="J116" s="4" t="str">
+        <v>lO4bfTs7T8G, uDy8xg2ofrw</v>
       </c>
     </row>
   </sheetData>
@@ -3893,30 +5053,30 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="str">
-        <v>Numerator only (number)</v>
+        <v>Percentage</v>
       </c>
       <c r="B2" s="4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C2" s="4" t="str">
-        <v>2018-01-16</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D2" s="4" t="str">
-        <v>kHy61PbChXr</v>
+        <v>hmSnCXmLYwt</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="str">
-        <v>Percentage</v>
+        <v>Numerator only (number)</v>
       </c>
       <c r="B3" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C3" s="5" t="str">
-        <v>2018-01-16</v>
+        <v>2021-02-08</v>
       </c>
       <c r="D3" s="5" t="str">
-        <v>hmSnCXmLYwt</v>
+        <v>kHy61PbChXr</v>
       </c>
     </row>
   </sheetData>
@@ -3951,7 +5111,7 @@
         <v>RMNCAH</v>
       </c>
       <c r="B2" s="4" t="str">
-        <v>2019-04-29</v>
+        <v>2021-02-08</v>
       </c>
       <c r="C2" s="4" t="str">
         <v>XRx2x8w50on</v>
@@ -3970,7 +5130,7 @@
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="81.7109375" customWidth="1"/>
+    <col min="3" max="3" width="106.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
@@ -4044,7 +5204,7 @@
         <v>Chart</v>
       </c>
       <c r="C4" s="4" t="str">
-        <v>RMNCAH - FP method at discharge after facility delivery - by orgunit 12-monthly</v>
+        <v>RMNCAH - FP method for post-partum patients at discharge after facility delivery - by orgunit 12-monthly</v>
       </c>
       <c r="D4" s="4" t="str">
         <v>JWj52nbp0GS</v>
@@ -4164,7 +5324,7 @@
         <v>Chart</v>
       </c>
       <c r="C10" s="4" t="str">
-        <v>RMNCAH - Still births</v>
+        <v>RMNCAH - Number of stillbirths by type and year</v>
       </c>
       <c r="D10" s="4" t="str">
         <v>siWT37XqpqC</v>
@@ -4184,7 +5344,7 @@
         <v>Pivot table</v>
       </c>
       <c r="C11" s="5" t="str">
-        <v>RMNCAH - Maternal deaths and deaths audited - yearly</v>
+        <v>RMNCAH - Maternal and Perinatal deaths reviewed - yearly</v>
       </c>
       <c r="D11" s="5" t="str">
         <v>Dy9lDiZvKTf</v>
@@ -4204,7 +5364,7 @@
         <v>Chart</v>
       </c>
       <c r="C12" s="4" t="str">
-        <v>RMNCAH - Diarrhea treatment with ORS - monthly</v>
+        <v>RMNCAH - Diarrhea treatment for children 0-9 by type, quarterly</v>
       </c>
       <c r="D12" s="4" t="str">
         <v>vX05ubEqofZ</v>
@@ -4224,7 +5384,7 @@
         <v>Chart</v>
       </c>
       <c r="C13" s="5" t="str">
-        <v>RMNCAH- Children with pneumonia by treatment type</v>
+        <v>RMNCAH - Children diagnosed with pneumonia by age and org unit, last 12 months</v>
       </c>
       <c r="D13" s="5" t="str">
         <v>PapzqUdexOB</v>
@@ -4244,7 +5404,7 @@
         <v>Chart</v>
       </c>
       <c r="C14" s="4" t="str">
-        <v>RMNCAH - Pneumonia by treatment type in children 0-4 years</v>
+        <v>RMNCAH - Pneumonia treatment in children 0-9, by quarter and org unit</v>
       </c>
       <c r="D14" s="4" t="str">
         <v>DqwceUCBT1n</v>
@@ -4264,7 +5424,7 @@
         <v>Chart</v>
       </c>
       <c r="C15" s="5" t="str">
-        <v>RMNCAH - Child mortality by cause 0-4 years - quarterly</v>
+        <v>RMNCAH - Child mortality by cause 0-4 years - this year</v>
       </c>
       <c r="D15" s="5" t="str">
         <v>DYGz6lzKmcM</v>
@@ -4284,7 +5444,7 @@
         <v>Chart</v>
       </c>
       <c r="C16" s="4" t="str">
-        <v>RMNCAH - Child mortality by cause 5-9 years - quarterly</v>
+        <v>RMNCAH - Child mortality by cause 5-9 years - this year</v>
       </c>
       <c r="D16" s="4" t="str">
         <v>FsBl7HRthGL</v>
